--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25897.57927059826</v>
+        <v>25223.31305178574</v>
       </c>
     </row>
     <row r="7">
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>103.019368432364</v>
+        <v>44.35725148088077</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.38220823434494</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>90.73945971522619</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>103.019368432364</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.019368432364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.99909704345519</v>
+        <v>20.99909704345507</v>
       </c>
       <c r="V12" t="n">
-        <v>27.87492793801141</v>
+        <v>27.8749279380113</v>
       </c>
       <c r="W12" t="n">
-        <v>46.76932394950575</v>
+        <v>46.76932394950563</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8473259920636167</v>
+        <v>0.847325992063503</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7570365658905018</v>
+        <v>0.7570365658903881</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.39869716835016</v>
+        <v>15.39869716835005</v>
       </c>
       <c r="T13" t="n">
-        <v>22.1146857834363</v>
+        <v>22.11468578343619</v>
       </c>
       <c r="U13" t="n">
-        <v>81.38181383316089</v>
+        <v>81.38181383316078</v>
       </c>
       <c r="V13" t="n">
-        <v>47.21198411241414</v>
+        <v>47.21198411241403</v>
       </c>
       <c r="W13" t="n">
-        <v>81.59733912517714</v>
+        <v>81.59733912517703</v>
       </c>
       <c r="X13" t="n">
-        <v>20.78399617762329</v>
+        <v>20.78399617762318</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.65899414068093</v>
+        <v>13.65899414068082</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>28.25463438122084</v>
       </c>
       <c r="G14" t="n">
         <v>103.0193684323634</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>16.10261709965999</v>
+        <v>16.10261709965987</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.38220823434494</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>74.63684261556568</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.99909704345519</v>
+        <v>20.99909704345507</v>
       </c>
       <c r="V15" t="n">
-        <v>27.87492793801141</v>
+        <v>27.8749279380113</v>
       </c>
       <c r="W15" t="n">
-        <v>46.76932394950575</v>
+        <v>46.76932394950563</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8473259920636167</v>
+        <v>0.847325992063503</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7570365658905018</v>
+        <v>0.7570365658903881</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.39869716835016</v>
+        <v>15.39869716835005</v>
       </c>
       <c r="T16" t="n">
-        <v>22.1146857834363</v>
+        <v>22.11468578343619</v>
       </c>
       <c r="U16" t="n">
-        <v>81.38181383316089</v>
+        <v>81.38181383316078</v>
       </c>
       <c r="V16" t="n">
-        <v>47.21198411241414</v>
+        <v>47.21198411241403</v>
       </c>
       <c r="W16" t="n">
-        <v>81.59733912517714</v>
+        <v>81.59733912517703</v>
       </c>
       <c r="X16" t="n">
-        <v>20.78399617762329</v>
+        <v>20.78399617762318</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.65899414068093</v>
+        <v>13.65899414068082</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>30.63521919901547</v>
       </c>
       <c r="D17" t="n">
-        <v>20.04536904869087</v>
+        <v>20.04536904869076</v>
       </c>
       <c r="E17" t="n">
         <v>47.2926975002697</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.09616909148843</v>
+        <v>48.09616909148849</v>
       </c>
       <c r="C20" t="n">
-        <v>30.63521919901541</v>
+        <v>30.63521919901547</v>
       </c>
       <c r="D20" t="n">
-        <v>20.04536904869082</v>
+        <v>20.04536904869087</v>
       </c>
       <c r="E20" t="n">
-        <v>47.29269750026964</v>
+        <v>47.2926975002697</v>
       </c>
       <c r="F20" t="n">
-        <v>72.2383731697193</v>
+        <v>72.23837316971935</v>
       </c>
       <c r="G20" t="n">
-        <v>80.1927466671732</v>
+        <v>80.19274666717263</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>14.60329614542108</v>
+        <v>14.60329614542093</v>
       </c>
       <c r="X20" t="n">
-        <v>35.09342810647689</v>
+        <v>35.09342810647695</v>
       </c>
       <c r="Y20" t="n">
-        <v>51.60026608406145</v>
+        <v>51.6002660840615</v>
       </c>
     </row>
     <row r="21">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48.09616909148843</v>
+        <v>48.09616909148849</v>
       </c>
       <c r="C23" t="n">
-        <v>30.63521919901541</v>
+        <v>30.63521919901547</v>
       </c>
       <c r="D23" t="n">
-        <v>20.04536904869082</v>
+        <v>20.04536904869087</v>
       </c>
       <c r="E23" t="n">
-        <v>47.29269750026964</v>
+        <v>47.2926975002697</v>
       </c>
       <c r="F23" t="n">
-        <v>72.2383731697193</v>
+        <v>72.23837316971935</v>
       </c>
       <c r="G23" t="n">
-        <v>80.1927466671732</v>
+        <v>80.19274666717325</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>14.60329614542087</v>
+        <v>14.60329614542093</v>
       </c>
       <c r="X23" t="n">
-        <v>35.09342810647689</v>
+        <v>35.09342810647695</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.60026608406145</v>
+        <v>51.6002660840615</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>190.4670024273978</v>
+        <v>190.4670024273979</v>
       </c>
       <c r="C26" t="n">
         <v>173.0060525349248</v>
@@ -2561,7 +2561,7 @@
         <v>162.4162023846002</v>
       </c>
       <c r="E26" t="n">
-        <v>189.663530836179</v>
+        <v>189.6635308361791</v>
       </c>
       <c r="F26" t="n">
         <v>214.6092065056287</v>
@@ -2570,7 +2570,7 @@
         <v>222.5635800030826</v>
       </c>
       <c r="H26" t="n">
-        <v>142.3708333359093</v>
+        <v>142.3708333359094</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.990277636502281</v>
+        <v>5.990277636502309</v>
       </c>
       <c r="T26" t="n">
-        <v>28.7614370749911</v>
+        <v>28.76143707499113</v>
       </c>
       <c r="U26" t="n">
-        <v>59.04102820967617</v>
+        <v>59.0410282096762</v>
       </c>
       <c r="V26" t="n">
         <v>135.4854192340522</v>
@@ -2621,7 +2621,7 @@
         <v>177.4642614423863</v>
       </c>
       <c r="Y26" t="n">
-        <v>193.9710994199708</v>
+        <v>193.9710994199709</v>
       </c>
     </row>
     <row r="27">
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>6.879280512658425</v>
+        <v>6.879280512658453</v>
       </c>
       <c r="U27" t="n">
-        <v>33.6579170187863</v>
+        <v>33.65791701878633</v>
       </c>
       <c r="V27" t="n">
-        <v>40.53374791334252</v>
+        <v>40.53374791334255</v>
       </c>
       <c r="W27" t="n">
-        <v>59.42814392483686</v>
+        <v>59.42814392483689</v>
       </c>
       <c r="X27" t="n">
-        <v>13.50614596739473</v>
+        <v>13.50614596739476</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.41585654122161</v>
+        <v>13.41585654122164</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>28.05751714368127</v>
+        <v>28.0575171436813</v>
       </c>
       <c r="T28" t="n">
-        <v>34.77350575876741</v>
+        <v>34.77350575876744</v>
       </c>
       <c r="U28" t="n">
-        <v>94.040633808492</v>
+        <v>94.04063380849203</v>
       </c>
       <c r="V28" t="n">
-        <v>59.87080408774526</v>
+        <v>59.87080408774528</v>
       </c>
       <c r="W28" t="n">
-        <v>94.25615910050826</v>
+        <v>94.25615910050828</v>
       </c>
       <c r="X28" t="n">
-        <v>33.44281615295441</v>
+        <v>33.44281615295444</v>
       </c>
       <c r="Y28" t="n">
-        <v>26.31781411601204</v>
+        <v>26.31781411601207</v>
       </c>
     </row>
     <row r="29">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>190.4670024273978</v>
+        <v>190.4670024273979</v>
       </c>
       <c r="C32" t="n">
         <v>173.0060525349248</v>
@@ -3035,7 +3035,7 @@
         <v>162.4162023846002</v>
       </c>
       <c r="E32" t="n">
-        <v>189.663530836179</v>
+        <v>189.6635308361791</v>
       </c>
       <c r="F32" t="n">
         <v>214.6092065056287</v>
@@ -3044,7 +3044,7 @@
         <v>222.5635800030826</v>
       </c>
       <c r="H32" t="n">
-        <v>142.3708333359093</v>
+        <v>142.3708333359094</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.990277636502242</v>
+        <v>5.990277636502299</v>
       </c>
       <c r="T32" t="n">
-        <v>28.76143707499108</v>
+        <v>28.76143707499114</v>
       </c>
       <c r="U32" t="n">
-        <v>59.04102820967614</v>
+        <v>59.0410282096762</v>
       </c>
       <c r="V32" t="n">
-        <v>135.4854192340521</v>
+        <v>135.4854192340522</v>
       </c>
       <c r="W32" t="n">
-        <v>156.9741294813302</v>
+        <v>156.9741294813303</v>
       </c>
       <c r="X32" t="n">
         <v>177.4642614423863</v>
       </c>
       <c r="Y32" t="n">
-        <v>193.9710994199708</v>
+        <v>193.9710994199709</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>6.879280512658396</v>
+        <v>6.879280512658453</v>
       </c>
       <c r="U33" t="n">
-        <v>33.65791701878627</v>
+        <v>33.65791701878633</v>
       </c>
       <c r="V33" t="n">
-        <v>40.53374791334249</v>
+        <v>40.53374791334255</v>
       </c>
       <c r="W33" t="n">
-        <v>59.42814392483683</v>
+        <v>59.42814392483689</v>
       </c>
       <c r="X33" t="n">
-        <v>13.5061459673947</v>
+        <v>13.50614596739476</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.41585654122159</v>
+        <v>13.41585654122164</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28.05751714368125</v>
+        <v>28.0575171436813</v>
       </c>
       <c r="T34" t="n">
-        <v>34.77350575876739</v>
+        <v>34.77350575876744</v>
       </c>
       <c r="U34" t="n">
-        <v>94.04063380849198</v>
+        <v>94.04063380849203</v>
       </c>
       <c r="V34" t="n">
-        <v>59.87080408774523</v>
+        <v>59.87080408774528</v>
       </c>
       <c r="W34" t="n">
-        <v>94.25615910050823</v>
+        <v>94.25615910050828</v>
       </c>
       <c r="X34" t="n">
-        <v>33.44281615295438</v>
+        <v>33.44281615295444</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.31781411601202</v>
+        <v>26.31781411601207</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.0465149023295</v>
+        <v>160.0465149023292</v>
       </c>
       <c r="C35" t="n">
-        <v>142.5855650098565</v>
+        <v>142.5855650098562</v>
       </c>
       <c r="D35" t="n">
-        <v>131.9957148595319</v>
+        <v>131.9957148595316</v>
       </c>
       <c r="E35" t="n">
-        <v>159.2430433111107</v>
+        <v>159.2430433111105</v>
       </c>
       <c r="F35" t="n">
-        <v>184.1887189805604</v>
+        <v>184.1887189805601</v>
       </c>
       <c r="G35" t="n">
-        <v>192.1430924780143</v>
+        <v>192.143092478014</v>
       </c>
       <c r="H35" t="n">
-        <v>111.950345810841</v>
+        <v>111.9503458108408</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.62054068460787</v>
+        <v>28.62054068460759</v>
       </c>
       <c r="V35" t="n">
-        <v>105.0649317089839</v>
+        <v>105.0649317089836</v>
       </c>
       <c r="W35" t="n">
-        <v>126.553641956262</v>
+        <v>126.5536419562617</v>
       </c>
       <c r="X35" t="n">
-        <v>147.043773917318</v>
+        <v>147.0437739173177</v>
       </c>
       <c r="Y35" t="n">
-        <v>163.5506118949025</v>
+        <v>163.5506118949023</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.237429493718003</v>
+        <v>3.237429493717719</v>
       </c>
       <c r="V36" t="n">
-        <v>10.11326038827423</v>
+        <v>10.11326038827394</v>
       </c>
       <c r="W36" t="n">
-        <v>29.00765639976856</v>
+        <v>29.00765639976828</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.353018233699117</v>
+        <v>4.353018233698832</v>
       </c>
       <c r="U37" t="n">
-        <v>63.6201462834237</v>
+        <v>63.62014628342342</v>
       </c>
       <c r="V37" t="n">
-        <v>29.45031656267696</v>
+        <v>29.45031656267668</v>
       </c>
       <c r="W37" t="n">
-        <v>63.83567157543996</v>
+        <v>63.83567157543968</v>
       </c>
       <c r="X37" t="n">
-        <v>3.022328627886111</v>
+        <v>3.022328627885827</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.0465149023295</v>
+        <v>160.0465149023292</v>
       </c>
       <c r="C38" t="n">
-        <v>142.5855650098565</v>
+        <v>142.5855650098562</v>
       </c>
       <c r="D38" t="n">
-        <v>131.9957148595319</v>
+        <v>131.9957148595316</v>
       </c>
       <c r="E38" t="n">
-        <v>159.2430433111107</v>
+        <v>159.2430433111105</v>
       </c>
       <c r="F38" t="n">
-        <v>184.1887189805604</v>
+        <v>184.1887189805601</v>
       </c>
       <c r="G38" t="n">
-        <v>192.1430924780143</v>
+        <v>192.143092478014</v>
       </c>
       <c r="H38" t="n">
-        <v>111.950345810841</v>
+        <v>111.9503458108408</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.62054068460787</v>
+        <v>28.62054068460759</v>
       </c>
       <c r="V38" t="n">
-        <v>105.0649317089839</v>
+        <v>105.0649317089836</v>
       </c>
       <c r="W38" t="n">
-        <v>126.553641956262</v>
+        <v>126.5536419562617</v>
       </c>
       <c r="X38" t="n">
-        <v>147.043773917318</v>
+        <v>147.0437739173177</v>
       </c>
       <c r="Y38" t="n">
-        <v>163.5506118949025</v>
+        <v>163.5506118949023</v>
       </c>
     </row>
     <row r="39">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.237429493718003</v>
+        <v>3.237429493717719</v>
       </c>
       <c r="V39" t="n">
-        <v>10.11326038827423</v>
+        <v>10.11326038827394</v>
       </c>
       <c r="W39" t="n">
-        <v>29.00765639976856</v>
+        <v>29.00765639976828</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.353018233699117</v>
+        <v>4.353018233698832</v>
       </c>
       <c r="U40" t="n">
-        <v>63.6201462834237</v>
+        <v>63.62014628342342</v>
       </c>
       <c r="V40" t="n">
-        <v>29.45031656267696</v>
+        <v>29.45031656267668</v>
       </c>
       <c r="W40" t="n">
-        <v>63.83567157543996</v>
+        <v>63.83567157543968</v>
       </c>
       <c r="X40" t="n">
-        <v>3.022328627886111</v>
+        <v>3.022328627885827</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.0465149023295</v>
+        <v>160.0465149023293</v>
       </c>
       <c r="C41" t="n">
-        <v>142.5855650098565</v>
+        <v>142.5855650098563</v>
       </c>
       <c r="D41" t="n">
-        <v>131.9957148595319</v>
+        <v>131.9957148595317</v>
       </c>
       <c r="E41" t="n">
-        <v>159.2430433111107</v>
+        <v>159.2430433111105</v>
       </c>
       <c r="F41" t="n">
-        <v>184.1887189805604</v>
+        <v>184.1887189805602</v>
       </c>
       <c r="G41" t="n">
-        <v>192.1430924780143</v>
+        <v>192.1430924780141</v>
       </c>
       <c r="H41" t="n">
-        <v>111.950345810841</v>
+        <v>111.9503458108408</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>28.62054068460787</v>
+        <v>28.62054068460768</v>
       </c>
       <c r="V41" t="n">
-        <v>105.0649317089839</v>
+        <v>105.0649317089837</v>
       </c>
       <c r="W41" t="n">
-        <v>126.553641956262</v>
+        <v>126.5536419562618</v>
       </c>
       <c r="X41" t="n">
-        <v>147.043773917318</v>
+        <v>147.0437739173178</v>
       </c>
       <c r="Y41" t="n">
-        <v>163.5506118949025</v>
+        <v>163.5506118949023</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.237429493718003</v>
+        <v>3.237429493717804</v>
       </c>
       <c r="V42" t="n">
-        <v>10.11326038827423</v>
+        <v>10.11326038827403</v>
       </c>
       <c r="W42" t="n">
-        <v>29.00765639976856</v>
+        <v>29.00765639976836</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.353018233699117</v>
+        <v>4.353018233698918</v>
       </c>
       <c r="U43" t="n">
-        <v>63.6201462834237</v>
+        <v>63.6201462834235</v>
       </c>
       <c r="V43" t="n">
-        <v>29.45031656267696</v>
+        <v>29.45031656267676</v>
       </c>
       <c r="W43" t="n">
-        <v>63.83567157543996</v>
+        <v>63.83567157543976</v>
       </c>
       <c r="X43" t="n">
-        <v>3.022328627886111</v>
+        <v>3.022328627885912</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.0465149023306</v>
+        <v>160.0465149023293</v>
       </c>
       <c r="C44" t="n">
-        <v>142.5855650098565</v>
+        <v>142.5855650098563</v>
       </c>
       <c r="D44" t="n">
-        <v>131.9957148595319</v>
+        <v>131.9957148595317</v>
       </c>
       <c r="E44" t="n">
-        <v>159.2430433111107</v>
+        <v>159.2430433111105</v>
       </c>
       <c r="F44" t="n">
-        <v>184.1887189805604</v>
+        <v>184.1887189805602</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1430924780143</v>
+        <v>192.1430924780141</v>
       </c>
       <c r="H44" t="n">
-        <v>111.950345810841</v>
+        <v>111.9503458108408</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>28.62054068460787</v>
+        <v>28.62054068460768</v>
       </c>
       <c r="V44" t="n">
-        <v>105.0649317089839</v>
+        <v>105.0649317089837</v>
       </c>
       <c r="W44" t="n">
-        <v>126.553641956262</v>
+        <v>126.5536419562618</v>
       </c>
       <c r="X44" t="n">
-        <v>147.043773917318</v>
+        <v>147.0437739173178</v>
       </c>
       <c r="Y44" t="n">
-        <v>163.5506118949025</v>
+        <v>163.5506118949023</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.237429493718003</v>
+        <v>3.237429493717804</v>
       </c>
       <c r="V45" t="n">
-        <v>10.11326038827423</v>
+        <v>10.11326038827403</v>
       </c>
       <c r="W45" t="n">
-        <v>29.00765639976856</v>
+        <v>29.00765639976836</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>4.353018233699117</v>
+        <v>4.353018233698918</v>
       </c>
       <c r="U46" t="n">
-        <v>63.6201462834237</v>
+        <v>63.6201462834235</v>
       </c>
       <c r="V46" t="n">
-        <v>29.45031656267696</v>
+        <v>29.45031656267676</v>
       </c>
       <c r="W46" t="n">
-        <v>63.83567157543996</v>
+        <v>63.83567157543976</v>
       </c>
       <c r="X46" t="n">
-        <v>3.022328627886111</v>
+        <v>3.022328627885912</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112.3015175880881</v>
+        <v>365.2267583412265</v>
       </c>
       <c r="C11" t="n">
-        <v>112.3015175880881</v>
+        <v>365.2267583412265</v>
       </c>
       <c r="D11" t="n">
-        <v>112.3015175880881</v>
+        <v>261.166790227728</v>
       </c>
       <c r="E11" t="n">
-        <v>112.3015175880881</v>
+        <v>157.1068221142296</v>
       </c>
       <c r="F11" t="n">
-        <v>112.3015175880881</v>
+        <v>157.1068221142296</v>
       </c>
       <c r="G11" t="n">
-        <v>8.241549474589117</v>
+        <v>112.3015175880875</v>
       </c>
       <c r="H11" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="I11" t="n">
-        <v>8.241549474589117</v>
+        <v>20.773781250167</v>
       </c>
       <c r="J11" t="n">
-        <v>8.241549474589117</v>
+        <v>84.10128743038277</v>
       </c>
       <c r="K11" t="n">
-        <v>110.2307242226295</v>
+        <v>186.0904621784226</v>
       </c>
       <c r="L11" t="n">
-        <v>153.4883886933847</v>
+        <v>288.0796369264623</v>
       </c>
       <c r="M11" t="n">
-        <v>250.896667853541</v>
+        <v>288.0796369264623</v>
       </c>
       <c r="N11" t="n">
-        <v>310.0882989814156</v>
+        <v>288.0796369264623</v>
       </c>
       <c r="O11" t="n">
-        <v>412.0774737294559</v>
+        <v>288.0796369264623</v>
       </c>
       <c r="P11" t="n">
-        <v>412.0774737294559</v>
+        <v>329.2761326455151</v>
       </c>
       <c r="Q11" t="n">
-        <v>412.0774737294559</v>
+        <v>386.656326356849</v>
       </c>
       <c r="R11" t="n">
-        <v>412.0774737294559</v>
+        <v>405.4756168140131</v>
       </c>
       <c r="S11" t="n">
-        <v>412.0774737294559</v>
+        <v>412.0774737294537</v>
       </c>
       <c r="T11" t="n">
-        <v>412.0774737294559</v>
+        <v>412.0774737294537</v>
       </c>
       <c r="U11" t="n">
-        <v>412.0774737294559</v>
+        <v>365.2267583412265</v>
       </c>
       <c r="V11" t="n">
-        <v>412.0774737294559</v>
+        <v>365.2267583412265</v>
       </c>
       <c r="W11" t="n">
-        <v>320.421453815086</v>
+        <v>365.2267583412265</v>
       </c>
       <c r="X11" t="n">
-        <v>216.3614857015871</v>
+        <v>365.2267583412265</v>
       </c>
       <c r="Y11" t="n">
-        <v>112.3015175880881</v>
+        <v>365.2267583412265</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="C12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="D12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="E12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="F12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="G12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="H12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="I12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="J12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="K12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="L12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="M12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="N12" t="n">
-        <v>106.4715610795654</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="O12" t="n">
-        <v>106.4715610795654</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="P12" t="n">
-        <v>106.4715610795654</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.4715610795654</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="R12" t="n">
-        <v>106.4715610795654</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="S12" t="n">
-        <v>106.4715610795654</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="T12" t="n">
-        <v>106.4715610795654</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="U12" t="n">
-        <v>85.26035194476214</v>
+        <v>85.26035194476162</v>
       </c>
       <c r="V12" t="n">
-        <v>57.10385907808394</v>
+        <v>57.10385907808355</v>
       </c>
       <c r="W12" t="n">
-        <v>9.862117714946812</v>
+        <v>9.862117714946541</v>
       </c>
       <c r="X12" t="n">
-        <v>9.006232874478513</v>
+        <v>9.006232874478355</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.241549474589117</v>
+        <v>33.08429171377098</v>
       </c>
       <c r="C13" t="n">
-        <v>8.241549474589117</v>
+        <v>33.08429171377098</v>
       </c>
       <c r="D13" t="n">
-        <v>8.241549474589117</v>
+        <v>33.08429171377098</v>
       </c>
       <c r="E13" t="n">
-        <v>8.241549474589117</v>
+        <v>33.08429171377098</v>
       </c>
       <c r="F13" t="n">
-        <v>8.241549474589117</v>
+        <v>33.08429171377098</v>
       </c>
       <c r="G13" t="n">
-        <v>8.241549474589117</v>
+        <v>33.08429171377098</v>
       </c>
       <c r="H13" t="n">
-        <v>8.241549474589117</v>
+        <v>33.08429171377098</v>
       </c>
       <c r="I13" t="n">
-        <v>8.241549474589117</v>
+        <v>33.08429171377098</v>
       </c>
       <c r="J13" t="n">
-        <v>8.241549474589117</v>
+        <v>33.08429171377098</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2307242226295</v>
+        <v>132.6063636818151</v>
       </c>
       <c r="L13" t="n">
-        <v>147.3593320400566</v>
+        <v>132.6063636818151</v>
       </c>
       <c r="M13" t="n">
-        <v>147.3593320400566</v>
+        <v>230.8250454440497</v>
       </c>
       <c r="N13" t="n">
-        <v>147.3593320400566</v>
+        <v>230.8250454440497</v>
       </c>
       <c r="O13" t="n">
-        <v>201.3454023908719</v>
+        <v>230.8250454440497</v>
       </c>
       <c r="P13" t="n">
-        <v>293.2390346673597</v>
+        <v>293.2390346673589</v>
       </c>
       <c r="Q13" t="n">
-        <v>293.2390346673597</v>
+        <v>293.2390346673589</v>
       </c>
       <c r="R13" t="n">
-        <v>293.2390346673597</v>
+        <v>293.2390346673589</v>
       </c>
       <c r="S13" t="n">
-        <v>277.6847951033697</v>
+        <v>277.6847951033689</v>
       </c>
       <c r="T13" t="n">
-        <v>255.3467286554542</v>
+        <v>255.3467286554535</v>
       </c>
       <c r="U13" t="n">
-        <v>173.142876298726</v>
+        <v>173.1428762987255</v>
       </c>
       <c r="V13" t="n">
-        <v>125.4540034579036</v>
+        <v>125.4540034579032</v>
       </c>
       <c r="W13" t="n">
-        <v>43.03244878600753</v>
+        <v>43.03244878600725</v>
       </c>
       <c r="X13" t="n">
-        <v>22.03851325305471</v>
+        <v>22.03851325305455</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.241549474589117</v>
+        <v>8.241549474589075</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>244.9015204300918</v>
+      </c>
+      <c r="C14" t="n">
+        <v>244.9015204300918</v>
+      </c>
+      <c r="D14" t="n">
+        <v>244.9015204300918</v>
+      </c>
+      <c r="E14" t="n">
+        <v>244.9015204300918</v>
+      </c>
+      <c r="F14" t="n">
         <v>216.3614857015859</v>
       </c>
-      <c r="C14" t="n">
-        <v>216.3614857015859</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="G14" t="n">
         <v>112.3015175880875</v>
-      </c>
-      <c r="E14" t="n">
-        <v>112.3015175880875</v>
-      </c>
-      <c r="F14" t="n">
-        <v>112.3015175880875</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8.241549474589075</v>
       </c>
       <c r="H14" t="n">
         <v>8.241549474589075</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77378125016688</v>
+        <v>20.773781250167</v>
       </c>
       <c r="J14" t="n">
-        <v>20.77378125016688</v>
+        <v>122.7629559982068</v>
       </c>
       <c r="K14" t="n">
-        <v>65.24108067285206</v>
+        <v>122.7629559982068</v>
       </c>
       <c r="L14" t="n">
-        <v>163.7442025151369</v>
+        <v>122.7629559982068</v>
       </c>
       <c r="M14" t="n">
-        <v>163.7442025151369</v>
+        <v>122.7629559982068</v>
       </c>
       <c r="N14" t="n">
-        <v>222.9358336430115</v>
+        <v>224.7521307462466</v>
       </c>
       <c r="O14" t="n">
-        <v>276.7995197159339</v>
+        <v>247.1117956980635</v>
       </c>
       <c r="P14" t="n">
-        <v>378.7886944639737</v>
+        <v>288.3082914171163</v>
       </c>
       <c r="Q14" t="n">
-        <v>412.0774737294537</v>
+        <v>321.5970706825964</v>
       </c>
       <c r="R14" t="n">
-        <v>412.0774737294537</v>
+        <v>405.4756168140131</v>
       </c>
       <c r="S14" t="n">
         <v>412.0774737294537</v>
       </c>
       <c r="T14" t="n">
-        <v>395.8122039318174</v>
+        <v>395.8122039318175</v>
       </c>
       <c r="U14" t="n">
-        <v>395.8122039318174</v>
+        <v>348.9614885435902</v>
       </c>
       <c r="V14" t="n">
-        <v>395.8122039318174</v>
+        <v>348.9614885435902</v>
       </c>
       <c r="W14" t="n">
-        <v>320.4214538150844</v>
+        <v>348.9614885435902</v>
       </c>
       <c r="X14" t="n">
-        <v>320.4214538150844</v>
+        <v>244.9015204300918</v>
       </c>
       <c r="Y14" t="n">
-        <v>320.4214538150844</v>
+        <v>244.9015204300918</v>
       </c>
     </row>
     <row r="15">
@@ -5361,43 +5361,43 @@
         <v>8.241549474589075</v>
       </c>
       <c r="L15" t="n">
-        <v>106.4715610795653</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="M15" t="n">
-        <v>106.4715610795653</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="N15" t="n">
-        <v>106.4715610795653</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="O15" t="n">
-        <v>106.4715610795653</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="P15" t="n">
-        <v>106.4715610795653</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.4715610795653</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="R15" t="n">
-        <v>106.4715610795653</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="S15" t="n">
-        <v>106.4715610795653</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="T15" t="n">
-        <v>106.4715610795653</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="U15" t="n">
-        <v>85.26035194476208</v>
+        <v>85.26035194476162</v>
       </c>
       <c r="V15" t="n">
-        <v>57.10385907808389</v>
+        <v>57.10385907808355</v>
       </c>
       <c r="W15" t="n">
-        <v>9.86211771494677</v>
+        <v>9.862117714946541</v>
       </c>
       <c r="X15" t="n">
-        <v>9.006232874478471</v>
+        <v>9.006232874478355</v>
       </c>
       <c r="Y15" t="n">
         <v>8.241549474589075</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.0799885366831</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="C16" t="n">
-        <v>127.0799885366831</v>
+        <v>8.241549474589075</v>
       </c>
       <c r="D16" t="n">
-        <v>182.8270728679526</v>
+        <v>63.98863380585867</v>
       </c>
       <c r="E16" t="n">
-        <v>182.8270728679526</v>
+        <v>121.895413405055</v>
       </c>
       <c r="F16" t="n">
-        <v>182.8270728679526</v>
+        <v>180.8049784816529</v>
       </c>
       <c r="G16" t="n">
-        <v>182.8270728679526</v>
+        <v>180.8049784816529</v>
       </c>
       <c r="H16" t="n">
-        <v>182.8270728679526</v>
+        <v>180.8049784816529</v>
       </c>
       <c r="I16" t="n">
-        <v>182.8270728679526</v>
+        <v>180.8049784816529</v>
       </c>
       <c r="J16" t="n">
-        <v>182.8270728679526</v>
+        <v>282.7941532296927</v>
       </c>
       <c r="K16" t="n">
-        <v>279.8393147140139</v>
+        <v>282.7941532296927</v>
       </c>
       <c r="L16" t="n">
-        <v>279.8393147140139</v>
+        <v>282.7941532296927</v>
       </c>
       <c r="M16" t="n">
-        <v>279.8393147140139</v>
+        <v>282.7941532296927</v>
       </c>
       <c r="N16" t="n">
-        <v>279.8393147140139</v>
+        <v>282.7941532296927</v>
       </c>
       <c r="O16" t="n">
-        <v>375.2905379819053</v>
+        <v>282.7941532296927</v>
       </c>
       <c r="P16" t="n">
-        <v>375.2905379819053</v>
+        <v>282.7941532296927</v>
       </c>
       <c r="Q16" t="n">
-        <v>375.2905379819053</v>
+        <v>293.2390346673589</v>
       </c>
       <c r="R16" t="n">
-        <v>412.0774737294537</v>
+        <v>293.2390346673589</v>
       </c>
       <c r="S16" t="n">
-        <v>396.5232341654637</v>
+        <v>277.6847951033689</v>
       </c>
       <c r="T16" t="n">
-        <v>374.1851677175482</v>
+        <v>255.3467286554535</v>
       </c>
       <c r="U16" t="n">
-        <v>291.98131536082</v>
+        <v>173.1428762987255</v>
       </c>
       <c r="V16" t="n">
-        <v>244.2924425199976</v>
+        <v>125.4540034579032</v>
       </c>
       <c r="W16" t="n">
-        <v>161.8708878481015</v>
+        <v>43.03244878600725</v>
       </c>
       <c r="X16" t="n">
-        <v>140.8769523151487</v>
+        <v>22.03851325305455</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.0799885366831</v>
+        <v>8.241549474589075</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>261.1752924896075</v>
       </c>
       <c r="C17" t="n">
-        <v>230.2306266320163</v>
+        <v>230.2306266320161</v>
       </c>
       <c r="D17" t="n">
-        <v>209.9827791080861</v>
+        <v>209.9827791080864</v>
       </c>
       <c r="E17" t="n">
-        <v>162.2123775926622</v>
+        <v>162.2123775926624</v>
       </c>
       <c r="F17" t="n">
         <v>89.24432388587519</v>
@@ -5513,46 +5513,46 @@
         <v>110.2307242226289</v>
       </c>
       <c r="J17" t="n">
-        <v>110.2307242226289</v>
+        <v>201.2825642725355</v>
       </c>
       <c r="K17" t="n">
-        <v>212.2198989706687</v>
+        <v>303.2717390205753</v>
       </c>
       <c r="L17" t="n">
-        <v>212.2198989706687</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2090737187085</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="N17" t="n">
-        <v>412.0774737294537</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="O17" t="n">
-        <v>412.0774737294537</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="P17" t="n">
-        <v>412.0774737294537</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="Q17" t="n">
-        <v>412.0774737294537</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="R17" t="n">
-        <v>412.0774737294537</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="S17" t="n">
-        <v>412.0774737294537</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="T17" t="n">
-        <v>412.0774737294537</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="U17" t="n">
-        <v>412.0774737294537</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="V17" t="n">
         <v>412.0774737294537</v>
       </c>
       <c r="W17" t="n">
-        <v>397.3266695421599</v>
+        <v>397.3266695421598</v>
       </c>
       <c r="X17" t="n">
         <v>361.8787623639004</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>261.1752924896078</v>
+        <v>261.1752924896073</v>
       </c>
       <c r="C20" t="n">
-        <v>230.2306266320164</v>
+        <v>230.2306266320159</v>
       </c>
       <c r="D20" t="n">
-        <v>209.9827791080863</v>
+        <v>209.9827791080857</v>
       </c>
       <c r="E20" t="n">
-        <v>162.2123775926624</v>
+        <v>162.2123775926618</v>
       </c>
       <c r="F20" t="n">
-        <v>89.24432388587515</v>
+        <v>89.24432388587456</v>
       </c>
       <c r="G20" t="n">
         <v>8.241549474589075</v>
@@ -5747,55 +5747,55 @@
         <v>8.241549474589075</v>
       </c>
       <c r="I20" t="n">
-        <v>8.241549474589075</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="J20" t="n">
-        <v>8.241549474589075</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="K20" t="n">
-        <v>8.241549474589075</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="L20" t="n">
-        <v>8.241549474589075</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="M20" t="n">
-        <v>110.2307242226289</v>
+        <v>212.2198989706687</v>
       </c>
       <c r="N20" t="n">
-        <v>110.2307242226289</v>
+        <v>212.2198989706687</v>
       </c>
       <c r="O20" t="n">
-        <v>110.2307242226289</v>
+        <v>212.2198989706687</v>
       </c>
       <c r="P20" t="n">
-        <v>208.0991242333741</v>
+        <v>212.2198989706687</v>
       </c>
       <c r="Q20" t="n">
-        <v>208.0991242333741</v>
+        <v>212.2198989706687</v>
       </c>
       <c r="R20" t="n">
-        <v>208.0991242333741</v>
+        <v>212.2198989706687</v>
       </c>
       <c r="S20" t="n">
-        <v>310.0882989814139</v>
+        <v>220.7752319456044</v>
       </c>
       <c r="T20" t="n">
-        <v>412.0774737294537</v>
+        <v>322.7644066936442</v>
       </c>
       <c r="U20" t="n">
-        <v>412.0774737294537</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="V20" t="n">
         <v>412.0774737294537</v>
       </c>
       <c r="W20" t="n">
-        <v>397.32666954216</v>
+        <v>397.3266695421598</v>
       </c>
       <c r="X20" t="n">
-        <v>361.8787623639005</v>
+        <v>361.8787623639003</v>
       </c>
       <c r="Y20" t="n">
-        <v>309.7572814709092</v>
+        <v>309.7572814709088</v>
       </c>
     </row>
     <row r="21">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>261.1752924896076</v>
+        <v>261.1752924896075</v>
       </c>
       <c r="C23" t="n">
-        <v>230.2306266320164</v>
+        <v>230.2306266320161</v>
       </c>
       <c r="D23" t="n">
-        <v>209.9827791080862</v>
+        <v>209.9827791080861</v>
       </c>
       <c r="E23" t="n">
-        <v>162.2123775926623</v>
+        <v>162.2123775926625</v>
       </c>
       <c r="F23" t="n">
-        <v>89.24432388587515</v>
+        <v>89.2443238858752</v>
       </c>
       <c r="G23" t="n">
         <v>8.241549474589075</v>
@@ -5990,43 +5990,43 @@
         <v>110.2307242226289</v>
       </c>
       <c r="K23" t="n">
-        <v>110.2307242226289</v>
+        <v>212.2198989706687</v>
       </c>
       <c r="L23" t="n">
-        <v>110.2307242226289</v>
+        <v>314.2090737187085</v>
       </c>
       <c r="M23" t="n">
-        <v>110.2307242226289</v>
+        <v>322.7644066936442</v>
       </c>
       <c r="N23" t="n">
-        <v>110.2307242226289</v>
+        <v>322.7644066936442</v>
       </c>
       <c r="O23" t="n">
-        <v>110.2307242226289</v>
+        <v>322.7644066936442</v>
       </c>
       <c r="P23" t="n">
-        <v>110.2307242226289</v>
+        <v>322.7644066936442</v>
       </c>
       <c r="Q23" t="n">
-        <v>208.0991242333741</v>
+        <v>322.7644066936442</v>
       </c>
       <c r="R23" t="n">
-        <v>208.0991242333741</v>
+        <v>322.7644066936442</v>
       </c>
       <c r="S23" t="n">
-        <v>310.0882989814139</v>
+        <v>322.7644066936442</v>
       </c>
       <c r="T23" t="n">
-        <v>412.0774737294537</v>
+        <v>322.7644066936442</v>
       </c>
       <c r="U23" t="n">
-        <v>412.0774737294537</v>
+        <v>405.2609137686151</v>
       </c>
       <c r="V23" t="n">
         <v>412.0774737294537</v>
       </c>
       <c r="W23" t="n">
-        <v>397.3266695421599</v>
+        <v>397.3266695421598</v>
       </c>
       <c r="X23" t="n">
         <v>361.8787623639004</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1158.103997834312</v>
+        <v>1158.103997834314</v>
       </c>
       <c r="C26" t="n">
-        <v>983.3504094151965</v>
+        <v>983.350409415198</v>
       </c>
       <c r="D26" t="n">
-        <v>819.2936393297418</v>
+        <v>819.2936393297432</v>
       </c>
       <c r="E26" t="n">
-        <v>627.7143152527935</v>
+        <v>627.7143152527947</v>
       </c>
       <c r="F26" t="n">
-        <v>410.9373389844818</v>
+        <v>410.9373389844828</v>
       </c>
       <c r="G26" t="n">
         <v>186.1256420116716</v>
       </c>
       <c r="H26" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="I26" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="J26" t="n">
-        <v>70.17347203141597</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="K26" t="n">
-        <v>80.4519538517674</v>
+        <v>504.8181031947591</v>
       </c>
       <c r="L26" t="n">
-        <v>334.3178181081688</v>
+        <v>949.0281382948824</v>
       </c>
       <c r="M26" t="n">
-        <v>633.3990522816898</v>
+        <v>949.0281382948824</v>
       </c>
       <c r="N26" t="n">
-        <v>1113.031906801851</v>
+        <v>1238.316821971322</v>
       </c>
       <c r="O26" t="n">
-        <v>1531.355540549313</v>
+        <v>1656.640455718784</v>
       </c>
       <c r="P26" t="n">
-        <v>1878.600525582556</v>
+        <v>1813.541269908305</v>
       </c>
       <c r="Q26" t="n">
-        <v>2109.548913825764</v>
+        <v>2044.489658151513</v>
       </c>
       <c r="R26" t="n">
-        <v>2115.83597250735</v>
+        <v>2115.835972507351</v>
       </c>
       <c r="S26" t="n">
-        <v>2109.785187015934</v>
+        <v>2109.785187015935</v>
       </c>
       <c r="T26" t="n">
-        <v>2080.733230374529</v>
+        <v>2080.73323037453</v>
       </c>
       <c r="U26" t="n">
-        <v>2021.095828142533</v>
+        <v>2021.095828142534</v>
       </c>
       <c r="V26" t="n">
-        <v>1884.241869320257</v>
+        <v>1884.241869320259</v>
       </c>
       <c r="W26" t="n">
-        <v>1725.682142571439</v>
+        <v>1725.68214257144</v>
       </c>
       <c r="X26" t="n">
-        <v>1546.425312831655</v>
+        <v>1546.425312831656</v>
       </c>
       <c r="Y26" t="n">
-        <v>1350.494909377139</v>
+        <v>1350.49490937714</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="C27" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="D27" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="E27" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="F27" t="n">
-        <v>42.316719450147</v>
+        <v>89.04237002441889</v>
       </c>
       <c r="G27" t="n">
-        <v>42.316719450147</v>
+        <v>89.04237002441889</v>
       </c>
       <c r="H27" t="n">
-        <v>42.316719450147</v>
+        <v>170.6897156336137</v>
       </c>
       <c r="I27" t="n">
-        <v>42.316719450147</v>
+        <v>170.6897156336137</v>
       </c>
       <c r="J27" t="n">
-        <v>42.316719450147</v>
+        <v>170.6897156336137</v>
       </c>
       <c r="K27" t="n">
-        <v>136.5973263318487</v>
+        <v>170.6897156336137</v>
       </c>
       <c r="L27" t="n">
-        <v>136.5973263318487</v>
+        <v>170.6897156336137</v>
       </c>
       <c r="M27" t="n">
-        <v>136.5973263318487</v>
+        <v>170.6897156336137</v>
       </c>
       <c r="N27" t="n">
-        <v>136.5973263318487</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="O27" t="n">
-        <v>136.5973263318487</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="P27" t="n">
-        <v>211.4289334685717</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.4289334685717</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="R27" t="n">
-        <v>211.4289334685717</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="S27" t="n">
-        <v>211.4289334685717</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="T27" t="n">
-        <v>204.4801652739672</v>
+        <v>204.4801652739674</v>
       </c>
       <c r="U27" t="n">
-        <v>170.4822692953952</v>
+        <v>170.4822692953954</v>
       </c>
       <c r="V27" t="n">
-        <v>129.5390895849482</v>
+        <v>129.5390895849483</v>
       </c>
       <c r="W27" t="n">
-        <v>69.5106613780423</v>
+        <v>69.51066137804239</v>
       </c>
       <c r="X27" t="n">
-        <v>55.8680896938052</v>
+        <v>55.86808969380526</v>
       </c>
       <c r="Y27" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.316719450147</v>
+        <v>54.62722991375099</v>
       </c>
       <c r="C28" t="n">
-        <v>67.08653740622736</v>
+        <v>54.62722991375099</v>
       </c>
       <c r="D28" t="n">
-        <v>67.08653740622736</v>
+        <v>78.6614439249195</v>
       </c>
       <c r="E28" t="n">
-        <v>112.4610852298458</v>
+        <v>124.0359917485379</v>
       </c>
       <c r="F28" t="n">
-        <v>112.4610852298458</v>
+        <v>170.4133250495578</v>
       </c>
       <c r="G28" t="n">
-        <v>112.4610852298458</v>
+        <v>194.6561733896836</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4610852298458</v>
+        <v>194.6561733896836</v>
       </c>
       <c r="I28" t="n">
-        <v>112.4610852298458</v>
+        <v>194.6561733896836</v>
       </c>
       <c r="J28" t="n">
-        <v>112.4610852298458</v>
+        <v>194.6561733896836</v>
       </c>
       <c r="K28" t="n">
-        <v>112.4610852298458</v>
+        <v>196.978171419634</v>
       </c>
       <c r="L28" t="n">
-        <v>200.4530941927859</v>
+        <v>196.978171419634</v>
       </c>
       <c r="M28" t="n">
-        <v>200.4530941927859</v>
+        <v>269.0450148629199</v>
       </c>
       <c r="N28" t="n">
-        <v>313.2049080764185</v>
+        <v>269.0450148629199</v>
       </c>
       <c r="O28" t="n">
-        <v>313.2049080764185</v>
+        <v>311.974905813834</v>
       </c>
       <c r="P28" t="n">
-        <v>392.5663085773285</v>
+        <v>334.6486331519228</v>
       </c>
       <c r="Q28" t="n">
-        <v>392.5663085773285</v>
+        <v>392.5663085773288</v>
       </c>
       <c r="R28" t="n">
-        <v>416.8210125492992</v>
+        <v>416.8210125492994</v>
       </c>
       <c r="S28" t="n">
-        <v>388.4800861415404</v>
+        <v>388.4800861415405</v>
       </c>
       <c r="T28" t="n">
-        <v>353.3553328498561</v>
+        <v>353.3553328498563</v>
       </c>
       <c r="U28" t="n">
-        <v>258.3647936493591</v>
+        <v>258.3647936493592</v>
       </c>
       <c r="V28" t="n">
-        <v>197.8892339647679</v>
+        <v>197.889233964768</v>
       </c>
       <c r="W28" t="n">
-        <v>102.680992449103</v>
+        <v>102.6809924491031</v>
       </c>
       <c r="X28" t="n">
-        <v>68.90037007238139</v>
+        <v>68.90037007238145</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1158.103997834312</v>
+        <v>1158.103997834315</v>
       </c>
       <c r="C29" t="n">
-        <v>983.3504094151963</v>
+        <v>983.3504094151987</v>
       </c>
       <c r="D29" t="n">
-        <v>819.2936393297416</v>
+        <v>819.2936393297439</v>
       </c>
       <c r="E29" t="n">
-        <v>627.7143152527933</v>
+        <v>627.7143152527954</v>
       </c>
       <c r="F29" t="n">
-        <v>410.9373389844816</v>
+        <v>410.9373389844835</v>
       </c>
       <c r="G29" t="n">
-        <v>186.1256420116716</v>
+        <v>186.1256420116717</v>
       </c>
       <c r="H29" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="I29" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="J29" t="n">
-        <v>70.17347203141595</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="K29" t="n">
-        <v>232.6683272802545</v>
+        <v>613.3566689676984</v>
       </c>
       <c r="L29" t="n">
-        <v>548.7100483419676</v>
+        <v>818.7876717668933</v>
       </c>
       <c r="M29" t="n">
-        <v>1038.13545335921</v>
+        <v>1308.213076784136</v>
       </c>
       <c r="N29" t="n">
-        <v>1517.768307879372</v>
+        <v>1597.501760460575</v>
       </c>
       <c r="O29" t="n">
-        <v>1747.834439984205</v>
+        <v>2015.825394208038</v>
       </c>
       <c r="P29" t="n">
-        <v>2095.079425017448</v>
+        <v>2044.489658151513</v>
       </c>
       <c r="Q29" t="n">
-        <v>2115.83597250735</v>
+        <v>2044.489658151513</v>
       </c>
       <c r="R29" t="n">
-        <v>2115.83597250735</v>
+        <v>2115.835972507351</v>
       </c>
       <c r="S29" t="n">
-        <v>2109.785187015934</v>
+        <v>2109.785187015935</v>
       </c>
       <c r="T29" t="n">
-        <v>2080.733230374529</v>
+        <v>2080.73323037453</v>
       </c>
       <c r="U29" t="n">
-        <v>2021.095828142532</v>
+        <v>2021.095828142534</v>
       </c>
       <c r="V29" t="n">
-        <v>1884.241869320257</v>
+        <v>1884.241869320259</v>
       </c>
       <c r="W29" t="n">
-        <v>1725.682142571439</v>
+        <v>1725.682142571441</v>
       </c>
       <c r="X29" t="n">
-        <v>1546.425312831655</v>
+        <v>1546.425312831657</v>
       </c>
       <c r="Y29" t="n">
-        <v>1350.494909377138</v>
+        <v>1350.494909377141</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="C30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="D30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="E30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="F30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="G30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="H30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="I30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="J30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="K30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="L30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="M30" t="n">
-        <v>42.316719450147</v>
+        <v>105.9449816434856</v>
       </c>
       <c r="N30" t="n">
-        <v>149.7740287218537</v>
+        <v>105.9449816434856</v>
       </c>
       <c r="O30" t="n">
-        <v>149.7740287218537</v>
+        <v>105.9449816434856</v>
       </c>
       <c r="P30" t="n">
-        <v>149.7740287218537</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="Q30" t="n">
-        <v>149.7740287218537</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="R30" t="n">
         <v>211.4289334685717</v>
@@ -6570,7 +6570,7 @@
         <v>211.4289334685717</v>
       </c>
       <c r="T30" t="n">
-        <v>204.4801652739672</v>
+        <v>204.4801652739673</v>
       </c>
       <c r="U30" t="n">
         <v>170.4822692953952</v>
@@ -6579,13 +6579,13 @@
         <v>129.5390895849482</v>
       </c>
       <c r="W30" t="n">
-        <v>69.5106613780423</v>
+        <v>69.51066137804233</v>
       </c>
       <c r="X30" t="n">
-        <v>55.8680896938052</v>
+        <v>55.86808969380523</v>
       </c>
       <c r="Y30" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
     </row>
     <row r="31">
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.62722991375099</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="C31" t="n">
-        <v>54.62722991375099</v>
+        <v>51.98603785016477</v>
       </c>
       <c r="D31" t="n">
-        <v>97.84208246944269</v>
+        <v>95.20089040585646</v>
       </c>
       <c r="E31" t="n">
-        <v>97.84208246944269</v>
+        <v>140.5754382294749</v>
       </c>
       <c r="F31" t="n">
-        <v>97.84208246944269</v>
+        <v>140.5754382294749</v>
       </c>
       <c r="G31" t="n">
-        <v>97.84208246944269</v>
+        <v>164.8182865696007</v>
       </c>
       <c r="H31" t="n">
-        <v>97.84208246944269</v>
+        <v>196.4223986848657</v>
       </c>
       <c r="I31" t="n">
-        <v>97.84208246944269</v>
+        <v>239.178265520672</v>
       </c>
       <c r="J31" t="n">
-        <v>210.589782230015</v>
+        <v>318.6260863717483</v>
       </c>
       <c r="K31" t="n">
-        <v>210.589782230015</v>
+        <v>318.6260863717483</v>
       </c>
       <c r="L31" t="n">
-        <v>210.589782230015</v>
+        <v>318.6260863717483</v>
       </c>
       <c r="M31" t="n">
-        <v>210.589782230015</v>
+        <v>334.6486331519225</v>
       </c>
       <c r="N31" t="n">
-        <v>286.3776536353879</v>
+        <v>334.6486331519225</v>
       </c>
       <c r="O31" t="n">
-        <v>416.8210125492992</v>
+        <v>334.6486331519225</v>
       </c>
       <c r="P31" t="n">
-        <v>416.8210125492992</v>
+        <v>334.6486331519225</v>
       </c>
       <c r="Q31" t="n">
-        <v>416.8210125492992</v>
+        <v>392.5663085773285</v>
       </c>
       <c r="R31" t="n">
         <v>416.8210125492992</v>
@@ -6655,16 +6655,16 @@
         <v>258.3647936493591</v>
       </c>
       <c r="V31" t="n">
-        <v>197.8892339647679</v>
+        <v>197.889233964768</v>
       </c>
       <c r="W31" t="n">
         <v>102.680992449103</v>
       </c>
       <c r="X31" t="n">
-        <v>68.90037007238139</v>
+        <v>68.90037007238142</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1158.103997834312</v>
+        <v>1158.103997834314</v>
       </c>
       <c r="C32" t="n">
-        <v>983.3504094151969</v>
+        <v>983.3504094151979</v>
       </c>
       <c r="D32" t="n">
-        <v>819.2936393297421</v>
+        <v>819.293639329743</v>
       </c>
       <c r="E32" t="n">
-        <v>627.7143152527935</v>
+        <v>627.7143152527944</v>
       </c>
       <c r="F32" t="n">
-        <v>410.9373389844818</v>
+        <v>410.9373389844826</v>
       </c>
       <c r="G32" t="n">
-        <v>186.1256420116711</v>
+        <v>186.1256420116716</v>
       </c>
       <c r="H32" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="I32" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="J32" t="n">
-        <v>260.5176428751379</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="K32" t="n">
-        <v>613.3566689676984</v>
+        <v>307.2297223017202</v>
       </c>
       <c r="L32" t="n">
-        <v>867.2225332240998</v>
+        <v>751.4397574018435</v>
       </c>
       <c r="M32" t="n">
-        <v>1338.587261269676</v>
+        <v>1240.865162419086</v>
       </c>
       <c r="N32" t="n">
-        <v>1818.220115789837</v>
+        <v>1720.498016939247</v>
       </c>
       <c r="O32" t="n">
-        <v>2046.199578693577</v>
+        <v>2068.944696426279</v>
       </c>
       <c r="P32" t="n">
-        <v>2095.079425017448</v>
+        <v>2068.944696426279</v>
       </c>
       <c r="Q32" t="n">
-        <v>2115.83597250735</v>
+        <v>2109.548913825765</v>
       </c>
       <c r="R32" t="n">
-        <v>2115.83597250735</v>
+        <v>2115.835972507351</v>
       </c>
       <c r="S32" t="n">
-        <v>2109.785187015932</v>
+        <v>2109.785187015935</v>
       </c>
       <c r="T32" t="n">
-        <v>2080.733230374528</v>
+        <v>2080.73323037453</v>
       </c>
       <c r="U32" t="n">
-        <v>2021.095828142532</v>
+        <v>2021.095828142534</v>
       </c>
       <c r="V32" t="n">
-        <v>1884.241869320257</v>
+        <v>1884.241869320259</v>
       </c>
       <c r="W32" t="n">
-        <v>1725.682142571438</v>
+        <v>1725.68214257144</v>
       </c>
       <c r="X32" t="n">
-        <v>1546.425312831654</v>
+        <v>1546.425312831656</v>
       </c>
       <c r="Y32" t="n">
-        <v>1350.494909377138</v>
+        <v>1350.49490937714</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="C33" t="n">
-        <v>42.316719450147</v>
+        <v>61.67947629543634</v>
       </c>
       <c r="D33" t="n">
-        <v>42.316719450147</v>
+        <v>106.0530322301659</v>
       </c>
       <c r="E33" t="n">
-        <v>42.316719450147</v>
+        <v>106.0530322301659</v>
       </c>
       <c r="F33" t="n">
-        <v>42.316719450147</v>
+        <v>106.0530322301659</v>
       </c>
       <c r="G33" t="n">
-        <v>42.316719450147</v>
+        <v>106.0530322301659</v>
       </c>
       <c r="H33" t="n">
-        <v>42.316719450147</v>
+        <v>106.0530322301659</v>
       </c>
       <c r="I33" t="n">
-        <v>142.7475745992706</v>
+        <v>106.0530322301659</v>
       </c>
       <c r="J33" t="n">
-        <v>142.7475745992706</v>
+        <v>106.0530322301659</v>
       </c>
       <c r="K33" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="M33" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="N33" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="O33" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="P33" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="R33" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="S33" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685719</v>
       </c>
       <c r="T33" t="n">
-        <v>204.4801652739671</v>
+        <v>204.4801652739674</v>
       </c>
       <c r="U33" t="n">
-        <v>170.4822692953951</v>
+        <v>170.4822692953954</v>
       </c>
       <c r="V33" t="n">
-        <v>129.5390895849481</v>
+        <v>129.5390895849483</v>
       </c>
       <c r="W33" t="n">
-        <v>69.51066137804224</v>
+        <v>69.51066137804239</v>
       </c>
       <c r="X33" t="n">
-        <v>55.86808969380517</v>
+        <v>55.86808969380526</v>
       </c>
       <c r="Y33" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
       <c r="C34" t="n">
-        <v>42.316719450147</v>
+        <v>67.08653740622736</v>
       </c>
       <c r="D34" t="n">
-        <v>85.53157200583871</v>
+        <v>67.08653740622736</v>
       </c>
       <c r="E34" t="n">
-        <v>85.53157200583871</v>
+        <v>112.4610852298458</v>
       </c>
       <c r="F34" t="n">
-        <v>85.53157200583871</v>
+        <v>112.4610852298458</v>
       </c>
       <c r="G34" t="n">
-        <v>85.53157200583871</v>
+        <v>136.7039335699715</v>
       </c>
       <c r="H34" t="n">
-        <v>85.53157200583871</v>
+        <v>168.3080456852365</v>
       </c>
       <c r="I34" t="n">
-        <v>85.53157200583871</v>
+        <v>211.0639125210428</v>
       </c>
       <c r="J34" t="n">
-        <v>164.979392856915</v>
+        <v>211.0639125210428</v>
       </c>
       <c r="K34" t="n">
-        <v>167.3013908868654</v>
+        <v>320.4994651340429</v>
       </c>
       <c r="L34" t="n">
-        <v>167.3013908868654</v>
+        <v>320.4994651340429</v>
       </c>
       <c r="M34" t="n">
-        <v>252.9878408735221</v>
+        <v>392.5663085773288</v>
       </c>
       <c r="N34" t="n">
-        <v>333.9020210569854</v>
+        <v>392.5663085773288</v>
       </c>
       <c r="O34" t="n">
-        <v>416.821012549299</v>
+        <v>392.5663085773288</v>
       </c>
       <c r="P34" t="n">
-        <v>416.821012549299</v>
+        <v>392.5663085773288</v>
       </c>
       <c r="Q34" t="n">
-        <v>416.821012549299</v>
+        <v>392.5663085773288</v>
       </c>
       <c r="R34" t="n">
-        <v>416.821012549299</v>
+        <v>416.8210125492994</v>
       </c>
       <c r="S34" t="n">
-        <v>388.4800861415401</v>
+        <v>388.4800861415405</v>
       </c>
       <c r="T34" t="n">
-        <v>353.3553328498559</v>
+        <v>353.3553328498563</v>
       </c>
       <c r="U34" t="n">
-        <v>258.364793649359</v>
+        <v>258.3647936493592</v>
       </c>
       <c r="V34" t="n">
-        <v>197.8892339647678</v>
+        <v>197.889233964768</v>
       </c>
       <c r="W34" t="n">
-        <v>102.680992449103</v>
+        <v>102.6809924491031</v>
       </c>
       <c r="X34" t="n">
-        <v>68.90037007238136</v>
+        <v>68.90037007238145</v>
       </c>
       <c r="Y34" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014703</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.4958572987036</v>
+        <v>965.495857298703</v>
       </c>
       <c r="C35" t="n">
-        <v>821.4700340564247</v>
+        <v>821.4700340564239</v>
       </c>
       <c r="D35" t="n">
-        <v>688.1410291478065</v>
+        <v>688.141029147806</v>
       </c>
       <c r="E35" t="n">
-        <v>527.2894702476947</v>
+        <v>527.2894702476945</v>
       </c>
       <c r="F35" t="n">
         <v>341.2402591562196</v>
       </c>
       <c r="G35" t="n">
-        <v>147.1563273602459</v>
+        <v>147.1563273602456</v>
       </c>
       <c r="H35" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I35" t="n">
-        <v>64.1914526253756</v>
+        <v>64.19145262537583</v>
       </c>
       <c r="J35" t="n">
-        <v>145.1030096798311</v>
+        <v>145.1030096798316</v>
       </c>
       <c r="K35" t="n">
-        <v>528.0583184222091</v>
+        <v>528.0583184222099</v>
       </c>
       <c r="L35" t="n">
-        <v>781.9241826786106</v>
+        <v>588.9000337672053</v>
       </c>
       <c r="M35" t="n">
-        <v>798.1663328161787</v>
+        <v>588.9000337672053</v>
       </c>
       <c r="N35" t="n">
-        <v>1219.846561263709</v>
+        <v>665.6757157693199</v>
       </c>
       <c r="O35" t="n">
-        <v>1641.526789711239</v>
+        <v>1087.355944216849</v>
       </c>
       <c r="P35" t="n">
-        <v>1641.526789711239</v>
+        <v>1464.71721189991</v>
       </c>
       <c r="Q35" t="n">
-        <v>1641.526789711239</v>
+        <v>1643.169249656812</v>
       </c>
       <c r="R35" t="n">
-        <v>1677.930131042643</v>
+        <v>1679.572590988216</v>
       </c>
       <c r="S35" t="n">
-        <v>1702.116038832323</v>
+        <v>1703.758498777896</v>
       </c>
       <c r="T35" t="n">
-        <v>1703.7584987779</v>
+        <v>1703.758498777896</v>
       </c>
       <c r="U35" t="n">
-        <v>1674.84886172274</v>
+        <v>1674.848861722738</v>
       </c>
       <c r="V35" t="n">
-        <v>1568.722668077301</v>
+        <v>1568.7226680773</v>
       </c>
       <c r="W35" t="n">
-        <v>1440.89070650532</v>
+        <v>1440.890706505318</v>
       </c>
       <c r="X35" t="n">
-        <v>1292.361641942372</v>
+        <v>1292.361641942371</v>
       </c>
       <c r="Y35" t="n">
-        <v>1127.159003664693</v>
+        <v>1127.159003664692</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="F36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="G36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="H36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="J36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="K36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="L36" t="n">
-        <v>76.86137834097295</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="M36" t="n">
-        <v>76.86137834097295</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="N36" t="n">
-        <v>76.86137834097295</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="O36" t="n">
-        <v>76.86137834097295</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="P36" t="n">
-        <v>76.86137834097295</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.86137834097295</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="R36" t="n">
-        <v>76.86137834097295</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="S36" t="n">
-        <v>76.86137834097295</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="T36" t="n">
-        <v>76.86137834097295</v>
+        <v>76.86137834097201</v>
       </c>
       <c r="U36" t="n">
-        <v>73.59124753923759</v>
+        <v>73.59124753923695</v>
       </c>
       <c r="V36" t="n">
-        <v>63.37583300562725</v>
+        <v>63.3758330056269</v>
       </c>
       <c r="W36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="X36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y36" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C37" t="n">
-        <v>88.96127058145596</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D37" t="n">
-        <v>88.96127058145596</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E37" t="n">
-        <v>88.96127058145596</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="F37" t="n">
-        <v>88.96127058145596</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="G37" t="n">
-        <v>88.96127058145596</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="H37" t="n">
-        <v>88.96127058145596</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="I37" t="n">
-        <v>88.96127058145596</v>
+        <v>106.9473194611821</v>
       </c>
       <c r="J37" t="n">
-        <v>198.5253740823498</v>
+        <v>106.9473194611821</v>
       </c>
       <c r="K37" t="n">
-        <v>200.0160601605336</v>
+        <v>106.9473194611821</v>
       </c>
       <c r="L37" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="M37" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="N37" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="O37" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="P37" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="Q37" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="R37" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="S37" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605321</v>
       </c>
       <c r="T37" t="n">
-        <v>195.619072045686</v>
+        <v>195.6190720456848</v>
       </c>
       <c r="U37" t="n">
-        <v>131.3562980220257</v>
+        <v>131.3562980220248</v>
       </c>
       <c r="V37" t="n">
-        <v>101.6085035142712</v>
+        <v>101.6085035142706</v>
       </c>
       <c r="W37" t="n">
-        <v>37.12802717544295</v>
+        <v>37.1280271754426</v>
       </c>
       <c r="X37" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.07516997555799</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.495857298705</v>
+        <v>965.4958572987034</v>
       </c>
       <c r="C38" t="n">
-        <v>821.4700340564258</v>
+        <v>821.4700340564245</v>
       </c>
       <c r="D38" t="n">
-        <v>688.1410291478077</v>
+        <v>688.1410291478066</v>
       </c>
       <c r="E38" t="n">
-        <v>527.2894702476958</v>
+        <v>527.2894702476951</v>
       </c>
       <c r="F38" t="n">
-        <v>341.2402591562206</v>
+        <v>341.2402591562202</v>
       </c>
       <c r="G38" t="n">
-        <v>147.1563273602459</v>
+        <v>147.1563273602456</v>
       </c>
       <c r="H38" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="I38" t="n">
-        <v>64.19145262537563</v>
+        <v>64.19145262537586</v>
       </c>
       <c r="J38" t="n">
-        <v>145.1030096798311</v>
+        <v>64.19145262537586</v>
       </c>
       <c r="K38" t="n">
-        <v>528.0583184222091</v>
+        <v>447.1467613677542</v>
       </c>
       <c r="L38" t="n">
-        <v>528.0583184222091</v>
+        <v>808.746407529586</v>
       </c>
       <c r="M38" t="n">
-        <v>827.1395525957302</v>
+        <v>868.2363184593115</v>
       </c>
       <c r="N38" t="n">
-        <v>1248.819781043261</v>
+        <v>868.2363184593115</v>
       </c>
       <c r="O38" t="n">
-        <v>1320.267517990423</v>
+        <v>939.684055406474</v>
       </c>
       <c r="P38" t="n">
-        <v>1379.048064583715</v>
+        <v>1317.045323089535</v>
       </c>
       <c r="Q38" t="n">
-        <v>1640.112735476741</v>
+        <v>1578.10999398256</v>
       </c>
       <c r="R38" t="n">
-        <v>1677.930131042644</v>
+        <v>1679.572590988217</v>
       </c>
       <c r="S38" t="n">
-        <v>1702.116038832324</v>
+        <v>1703.758498777898</v>
       </c>
       <c r="T38" t="n">
-        <v>1703.758498777901</v>
+        <v>1703.758498777898</v>
       </c>
       <c r="U38" t="n">
-        <v>1674.848861722741</v>
+        <v>1674.848861722738</v>
       </c>
       <c r="V38" t="n">
-        <v>1568.722668077303</v>
+        <v>1568.7226680773</v>
       </c>
       <c r="W38" t="n">
-        <v>1440.890706505321</v>
+        <v>1440.890706505319</v>
       </c>
       <c r="X38" t="n">
-        <v>1292.361641942374</v>
+        <v>1292.361641942372</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.159003664694</v>
+        <v>1127.159003664693</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="C39" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="D39" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="E39" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="F39" t="n">
-        <v>76.86137834097296</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="G39" t="n">
-        <v>76.86137834097296</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="H39" t="n">
-        <v>76.86137834097296</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="I39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="J39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="K39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="L39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="M39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="N39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="O39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="P39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="R39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="S39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="T39" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097204</v>
       </c>
       <c r="U39" t="n">
-        <v>73.5912475392376</v>
+        <v>73.59124753923697</v>
       </c>
       <c r="V39" t="n">
-        <v>63.37583300562727</v>
+        <v>63.37583300562693</v>
       </c>
       <c r="W39" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="X39" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="Y39" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="C40" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="D40" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="E40" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="F40" t="n">
-        <v>34.07516997555801</v>
+        <v>110.5687859263958</v>
       </c>
       <c r="G40" t="n">
-        <v>34.07516997555801</v>
+        <v>164.9279169163395</v>
       </c>
       <c r="H40" t="n">
-        <v>81.90776854777593</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="I40" t="n">
-        <v>81.90776854777593</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="J40" t="n">
-        <v>81.90776854777593</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="K40" t="n">
-        <v>81.90776854777593</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="L40" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="M40" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="N40" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="O40" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="P40" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="Q40" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="R40" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="S40" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605322</v>
       </c>
       <c r="T40" t="n">
-        <v>195.619072045686</v>
+        <v>195.6190720456848</v>
       </c>
       <c r="U40" t="n">
-        <v>131.3562980220257</v>
+        <v>131.3562980220248</v>
       </c>
       <c r="V40" t="n">
-        <v>101.6085035142712</v>
+        <v>101.6085035142706</v>
       </c>
       <c r="W40" t="n">
-        <v>37.12802717544297</v>
+        <v>37.12802717544263</v>
       </c>
       <c r="X40" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>965.495857298705</v>
+        <v>965.4958572987032</v>
       </c>
       <c r="C41" t="n">
-        <v>821.4700340564257</v>
+        <v>821.470034056424</v>
       </c>
       <c r="D41" t="n">
-        <v>688.1410291478076</v>
+        <v>688.1410291478062</v>
       </c>
       <c r="E41" t="n">
-        <v>527.2894702476957</v>
+        <v>527.2894702476947</v>
       </c>
       <c r="F41" t="n">
-        <v>341.2402591562205</v>
+        <v>341.2402591562197</v>
       </c>
       <c r="G41" t="n">
-        <v>147.1563273602459</v>
+        <v>147.1563273602457</v>
       </c>
       <c r="H41" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="I41" t="n">
-        <v>64.19145262537563</v>
+        <v>64.19145262537577</v>
       </c>
       <c r="J41" t="n">
-        <v>312.5086587001841</v>
+        <v>312.5086587001845</v>
       </c>
       <c r="K41" t="n">
-        <v>475.0035139490227</v>
+        <v>695.4639674425628</v>
       </c>
       <c r="L41" t="n">
-        <v>535.8452292940177</v>
+        <v>695.4639674425628</v>
       </c>
       <c r="M41" t="n">
-        <v>610.3685188031741</v>
+        <v>1015.285327339395</v>
       </c>
       <c r="N41" t="n">
-        <v>899.6572024796133</v>
+        <v>1092.06100934151</v>
       </c>
       <c r="O41" t="n">
-        <v>1195.053338855929</v>
+        <v>1466.814157303971</v>
       </c>
       <c r="P41" t="n">
-        <v>1572.41460653899</v>
+        <v>1525.594703897264</v>
       </c>
       <c r="Q41" t="n">
-        <v>1576.467534036988</v>
+        <v>1576.467534036984</v>
       </c>
       <c r="R41" t="n">
-        <v>1677.930131042644</v>
+        <v>1677.93013104264</v>
       </c>
       <c r="S41" t="n">
-        <v>1702.116038832324</v>
+        <v>1702.116038832321</v>
       </c>
       <c r="T41" t="n">
-        <v>1703.758498777901</v>
+        <v>1703.758498777898</v>
       </c>
       <c r="U41" t="n">
-        <v>1674.848861722741</v>
+        <v>1674.848861722738</v>
       </c>
       <c r="V41" t="n">
-        <v>1568.722668077303</v>
+        <v>1568.7226680773</v>
       </c>
       <c r="W41" t="n">
-        <v>1440.890706505321</v>
+        <v>1440.890706505319</v>
       </c>
       <c r="X41" t="n">
-        <v>1292.361641942374</v>
+        <v>1292.361641942372</v>
       </c>
       <c r="Y41" t="n">
-        <v>1127.159003664694</v>
+        <v>1127.159003664692</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="C42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="D42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="E42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="F42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="G42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="H42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="I42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="J42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="K42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="L42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="M42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="N42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="O42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="P42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.86137834097296</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="R42" t="n">
-        <v>76.86137834097296</v>
+        <v>53.55558339868632</v>
       </c>
       <c r="S42" t="n">
-        <v>76.86137834097296</v>
+        <v>53.55558339868632</v>
       </c>
       <c r="T42" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097229</v>
       </c>
       <c r="U42" t="n">
-        <v>73.5912475392376</v>
+        <v>73.59124753923714</v>
       </c>
       <c r="V42" t="n">
-        <v>63.37583300562727</v>
+        <v>63.37583300562702</v>
       </c>
       <c r="W42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="X42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="C43" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="D43" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="E43" t="n">
-        <v>109.5660004489941</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="F43" t="n">
-        <v>109.5660004489941</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="G43" t="n">
-        <v>109.5660004489941</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="H43" t="n">
-        <v>109.5660004489941</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="I43" t="n">
-        <v>109.5660004489941</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5660004489941</v>
+        <v>82.90993731824847</v>
       </c>
       <c r="K43" t="n">
-        <v>109.5660004489941</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="L43" t="n">
-        <v>109.5660004489941</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="M43" t="n">
-        <v>109.5660004489941</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="N43" t="n">
-        <v>109.5660004489941</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="O43" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="P43" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="Q43" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="R43" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="S43" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="T43" t="n">
-        <v>195.619072045686</v>
+        <v>195.6190720456851</v>
       </c>
       <c r="U43" t="n">
-        <v>131.3562980220257</v>
+        <v>131.356298022025</v>
       </c>
       <c r="V43" t="n">
-        <v>101.6085035142712</v>
+        <v>101.6085035142708</v>
       </c>
       <c r="W43" t="n">
-        <v>37.12802717544297</v>
+        <v>37.12802717544272</v>
       </c>
       <c r="X43" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>965.4958572987044</v>
+        <v>965.495857298703</v>
       </c>
       <c r="C44" t="n">
-        <v>821.4700340564251</v>
+        <v>821.4700340564241</v>
       </c>
       <c r="D44" t="n">
-        <v>688.141029147807</v>
+        <v>688.1410291478062</v>
       </c>
       <c r="E44" t="n">
-        <v>527.2894702476951</v>
+        <v>527.2894702476947</v>
       </c>
       <c r="F44" t="n">
-        <v>341.2402591562199</v>
+        <v>341.2402591562197</v>
       </c>
       <c r="G44" t="n">
-        <v>147.1563273602459</v>
+        <v>147.1563273602457</v>
       </c>
       <c r="H44" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="I44" t="n">
-        <v>64.19145262537563</v>
+        <v>64.19145262537577</v>
       </c>
       <c r="J44" t="n">
-        <v>64.19145262537563</v>
+        <v>145.1030096798314</v>
       </c>
       <c r="K44" t="n">
-        <v>447.1467613677537</v>
+        <v>528.0583184222097</v>
       </c>
       <c r="L44" t="n">
-        <v>507.9884767127487</v>
+        <v>847.4664976781527</v>
       </c>
       <c r="M44" t="n">
-        <v>929.6687051602792</v>
+        <v>921.9897871873093</v>
       </c>
       <c r="N44" t="n">
-        <v>1351.34893360781</v>
+        <v>998.7654691894238</v>
       </c>
       <c r="O44" t="n">
-        <v>1641.365682544416</v>
+        <v>1226.744932093164</v>
       </c>
       <c r="P44" t="n">
-        <v>1702.116038832324</v>
+        <v>1592.296419517093</v>
       </c>
       <c r="Q44" t="n">
-        <v>1702.116038832324</v>
+        <v>1643.169249656813</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.116038832324</v>
+        <v>1679.572590988217</v>
       </c>
       <c r="S44" t="n">
-        <v>1702.116038832324</v>
+        <v>1703.758498777898</v>
       </c>
       <c r="T44" t="n">
-        <v>1703.758498777901</v>
+        <v>1703.758498777898</v>
       </c>
       <c r="U44" t="n">
-        <v>1674.848861722741</v>
+        <v>1674.848861722738</v>
       </c>
       <c r="V44" t="n">
-        <v>1568.722668077303</v>
+        <v>1568.7226680773</v>
       </c>
       <c r="W44" t="n">
-        <v>1440.890706505321</v>
+        <v>1440.890706505319</v>
       </c>
       <c r="X44" t="n">
-        <v>1292.361641942374</v>
+        <v>1292.361641942371</v>
       </c>
       <c r="Y44" t="n">
-        <v>1127.159003664695</v>
+        <v>1127.159003664692</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="C45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="D45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="E45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="F45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="G45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="H45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="I45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="J45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="K45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="L45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="M45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="N45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="O45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="P45" t="n">
-        <v>76.86137834097296</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097229</v>
       </c>
       <c r="R45" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097229</v>
       </c>
       <c r="S45" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097229</v>
       </c>
       <c r="T45" t="n">
-        <v>76.86137834097296</v>
+        <v>76.86137834097229</v>
       </c>
       <c r="U45" t="n">
-        <v>73.5912475392376</v>
+        <v>73.59124753923714</v>
       </c>
       <c r="V45" t="n">
-        <v>63.37583300562727</v>
+        <v>63.37583300562702</v>
       </c>
       <c r="W45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="X45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="C46" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="D46" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="E46" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="F46" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="G46" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="H46" t="n">
-        <v>95.79556474064063</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="I46" t="n">
-        <v>168.6677142262646</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="J46" t="n">
-        <v>168.6677142262646</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="K46" t="n">
-        <v>168.6677142262646</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="L46" t="n">
-        <v>168.6677142262646</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="M46" t="n">
-        <v>168.6677142262646</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="N46" t="n">
-        <v>168.6677142262646</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="O46" t="n">
-        <v>168.6677142262646</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="P46" t="n">
-        <v>168.6677142262646</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="Q46" t="n">
-        <v>197.6767194829605</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="R46" t="n">
-        <v>197.6767194829605</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="S46" t="n">
-        <v>200.0160601605336</v>
+        <v>200.0160601605325</v>
       </c>
       <c r="T46" t="n">
-        <v>195.619072045686</v>
+        <v>195.6190720456851</v>
       </c>
       <c r="U46" t="n">
-        <v>131.3562980220257</v>
+        <v>131.356298022025</v>
       </c>
       <c r="V46" t="n">
-        <v>101.6085035142712</v>
+        <v>101.6085035142708</v>
       </c>
       <c r="W46" t="n">
-        <v>37.12802717544297</v>
+        <v>37.12802717544272</v>
       </c>
       <c r="X46" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.07516997555801</v>
+        <v>34.07516997555796</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>140.9584812516001</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>58.10290436904562</v>
+        <v>58.10290436904495</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>59.32475785584289</v>
       </c>
       <c r="M11" t="n">
-        <v>40.87781871236338</v>
+        <v>147.4112767519022</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>145.1361328196214</v>
       </c>
       <c r="O11" t="n">
-        <v>48.61160472234131</v>
+        <v>150.5178955013912</v>
       </c>
       <c r="P11" t="n">
-        <v>163.3130372729768</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.4738040803871</v>
+        <v>139.8288857556188</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,13 +8845,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.492023010097256</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>140.8896663618272</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8860,13 +8860,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>140.9584812516001</v>
+        <v>39.05219047254952</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>160.0091951480955</v>
       </c>
       <c r="L14" t="n">
-        <v>94.00941279137675</v>
+        <v>161.2310486348935</v>
       </c>
       <c r="M14" t="n">
         <v>147.4112767519022</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>43.2298420405708</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>96.70214336305988</v>
       </c>
       <c r="P14" t="n">
-        <v>266.3324057053402</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2.019812620197158</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>154.1286968413709</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>147.4112767519022</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10033,25 +10033,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>104.3983137891471</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>105.7148695525912</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>95.26431138448916</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>151.8738083861843</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>288.1982710773088</v>
+        <v>176.4702728323409</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>171.3006296503229</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,31 +10185,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>97.03390299193964</v>
       </c>
       <c r="L30" t="n">
-        <v>83.68361168878394</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.10243564664648</v>
+        <v>142.3734075591097</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>65.61538793357953</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.46949852711543</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10267,28 +10267,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>104.3983137891471</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M31" t="n">
-        <v>105.7148695525912</v>
+        <v>121.8992602396359</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>95.26431138448916</v>
       </c>
       <c r="O31" t="n">
-        <v>48.00441153696745</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>235.3312476812786</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>212.6866194183003</v>
+        <v>163.3130372729768</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>11.20736803707514</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.46949852711541</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71739294811697</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,25 +10507,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>22.67243678841798</v>
       </c>
       <c r="L34" t="n">
         <v>103.3860221017998</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>95.26431138448916</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P34" t="n">
         <v>112.1038084270827</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,22 +10589,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>348.3884307529452</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>353.7701934347151</v>
+        <v>353.770193434714</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.69521510420219</v>
+        <v>128.8678864820018</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.68361168878391</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>78.10243564664646</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>65.61538793357951</v>
       </c>
       <c r="O36" t="n">
-        <v>82.46949852711541</v>
+        <v>125.6878908154125</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>85.71739294811697</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10747,19 +10747,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>103.3860221017998</v>
+        <v>13.19448852494041</v>
       </c>
       <c r="M37" t="n">
         <v>105.7148695525912</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>95.26431138448916</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>303.7958897139763</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>348.3884307529455</v>
+        <v>145.1361328196214</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>1.42833761060546</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,22 +10899,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>102.9618319903678</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>4.646718353409213</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>78.10243564664646</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.46949852711541</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10978,28 +10978,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>104.3983137891471</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M40" t="n">
         <v>105.7148695525912</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>95.26431138448916</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>112.1038084270827</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11063,19 +11063,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>161.2310486348935</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>226.2105044738929</v>
+        <v>306.3691020356554</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>104.3983137891471</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11300,25 +11300,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>350.6635746852263</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>348.3884307529455</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>1.989706762238427</v>
+        <v>309.8696372026626</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>65.61538793357951</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,25 +11452,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>49.32804782089953</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M46" t="n">
         <v>105.7148695525912</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>95.26431138448916</v>
       </c>
       <c r="O46" t="n">
         <v>108.5102821731398</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.8081824520667</v>
+        <v>177.8081824520666</v>
       </c>
       <c r="C11" t="n">
-        <v>160.3472325595937</v>
+        <v>160.3472325595936</v>
       </c>
       <c r="D11" t="n">
-        <v>149.7573824092691</v>
+        <v>46.73801397690556</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0047108608479</v>
+        <v>73.98534242848439</v>
       </c>
       <c r="F11" t="n">
-        <v>201.9503865302976</v>
+        <v>201.9503865302975</v>
       </c>
       <c r="G11" t="n">
-        <v>106.8853915953875</v>
+        <v>165.5475085468706</v>
       </c>
       <c r="H11" t="n">
-        <v>129.7120133605783</v>
+        <v>26.69264492821472</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.10261709965999</v>
+        <v>16.10261709965987</v>
       </c>
       <c r="U11" t="n">
-        <v>46.38220823434506</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>122.826599258721</v>
+        <v>122.8265992587209</v>
       </c>
       <c r="W11" t="n">
-        <v>53.57584979077296</v>
+        <v>144.315309505999</v>
       </c>
       <c r="X11" t="n">
-        <v>61.78607303469119</v>
+        <v>164.8054414670551</v>
       </c>
       <c r="Y11" t="n">
-        <v>78.29291101227574</v>
+        <v>181.3122794446396</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.7888140197033</v>
+        <v>177.8081824520666</v>
       </c>
       <c r="C14" t="n">
-        <v>160.3472325595937</v>
+        <v>160.3472325595936</v>
       </c>
       <c r="D14" t="n">
-        <v>46.73801397690566</v>
+        <v>149.757382409269</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0047108608479</v>
+        <v>177.0047108608478</v>
       </c>
       <c r="F14" t="n">
-        <v>201.9503865302976</v>
+        <v>173.6957521490766</v>
       </c>
       <c r="G14" t="n">
-        <v>106.885391595388</v>
+        <v>106.8853915953879</v>
       </c>
       <c r="H14" t="n">
-        <v>129.7120133605783</v>
+        <v>26.69264492821472</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.38220823434506</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>122.826599258721</v>
+        <v>122.8265992587209</v>
       </c>
       <c r="W14" t="n">
-        <v>69.67846689043348</v>
+        <v>144.315309505999</v>
       </c>
       <c r="X14" t="n">
-        <v>164.8054414670552</v>
+        <v>61.78607303469164</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.3122794446397</v>
+        <v>181.3122794446396</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.040723476985477e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-2.113864638886298e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807949.6825966823</v>
+        <v>807949.6825966821</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807949.682596682</v>
+        <v>807949.6825966821</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1031508.535180602</v>
+        <v>1031508.535180601</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1031508.535180602</v>
+        <v>1031508.535180601</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>979831.0476089728</v>
+        <v>979831.0476089724</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>979831.0476089729</v>
+        <v>979831.0476089725</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>979831.0476089729</v>
+        <v>979831.0476089723</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>979831.0476089731</v>
+        <v>979831.0476089723</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.6201660748</v>
       </c>
       <c r="D2" t="n">
         <v>532529.620166075</v>
       </c>
       <c r="E2" t="n">
-        <v>456976.1415905933</v>
+        <v>456976.1415905934</v>
       </c>
       <c r="F2" t="n">
-        <v>456976.1415905933</v>
+        <v>456976.1415905934</v>
       </c>
       <c r="G2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="H2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="I2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="J2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="K2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="L2" t="n">
+        <v>533677.1504117849</v>
+      </c>
+      <c r="M2" t="n">
         <v>533677.1504117845</v>
       </c>
-      <c r="H2" t="n">
-        <v>533677.1504117845</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>533677.1504117848</v>
       </c>
-      <c r="K2" t="n">
-        <v>533677.1504117845</v>
-      </c>
-      <c r="L2" t="n">
-        <v>533677.1504117843</v>
-      </c>
-      <c r="M2" t="n">
-        <v>533677.1504117843</v>
-      </c>
-      <c r="N2" t="n">
-        <v>533677.1504117842</v>
-      </c>
-      <c r="O2" t="n">
-        <v>533677.1504117844</v>
-      </c>
       <c r="P2" t="n">
-        <v>533677.150411785</v>
+        <v>533677.1504117848</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>289090.9969243214</v>
+        <v>289090.9969243213</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103769.6106884626</v>
+        <v>103769.6106884625</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161488.4078639646</v>
+        <v>161488.4078639648</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>103769.6106884626</v>
+        <v>103769.6106884625</v>
       </c>
       <c r="M3" t="n">
-        <v>24336.39002005466</v>
+        <v>24336.39002005489</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>50043.86070040357</v>
+        <v>50043.86070040362</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>362546.603349822</v>
+        <v>362546.6033498219</v>
       </c>
       <c r="F4" t="n">
         <v>362546.6033498219</v>
@@ -26439,16 +26439,16 @@
         <v>428069.040467896</v>
       </c>
       <c r="J4" t="n">
-        <v>436259.1448627571</v>
+        <v>436259.1448627572</v>
       </c>
       <c r="K4" t="n">
-        <v>436259.1448627571</v>
+        <v>436259.1448627572</v>
       </c>
       <c r="L4" t="n">
         <v>436259.1448627571</v>
       </c>
       <c r="M4" t="n">
-        <v>433189.2498249456</v>
+        <v>433189.2498249457</v>
       </c>
       <c r="N4" t="n">
         <v>433189.2498249457</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26052.73677594696</v>
+        <v>26052.73677594693</v>
       </c>
       <c r="F5" t="n">
-        <v>26052.73677594692</v>
+        <v>26052.73677594693</v>
       </c>
       <c r="G5" t="n">
         <v>36957.49602715737</v>
       </c>
       <c r="H5" t="n">
-        <v>36957.49602715738</v>
+        <v>36957.49602715737</v>
       </c>
       <c r="I5" t="n">
-        <v>36957.49602715738</v>
+        <v>36957.49602715737</v>
       </c>
       <c r="J5" t="n">
-        <v>50885.65162086484</v>
+        <v>50885.65162086485</v>
       </c>
       <c r="K5" t="n">
-        <v>50885.65162086484</v>
+        <v>50885.65162086485</v>
       </c>
       <c r="L5" t="n">
-        <v>50885.65162086484</v>
+        <v>50885.65162086485</v>
       </c>
       <c r="M5" t="n">
+        <v>47179.49398592213</v>
+      </c>
+      <c r="N5" t="n">
         <v>47179.49398592215</v>
       </c>
-      <c r="N5" t="n">
-        <v>47179.49398592217</v>
-      </c>
       <c r="O5" t="n">
-        <v>47179.49398592217</v>
+        <v>47179.49398592214</v>
       </c>
       <c r="P5" t="n">
-        <v>47179.49398592217</v>
+        <v>47179.49398592214</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31286.06023434384</v>
+        <v>31281.64665647562</v>
       </c>
       <c r="C6" t="n">
-        <v>31286.06023434384</v>
+        <v>31281.6466564755</v>
       </c>
       <c r="D6" t="n">
-        <v>31286.06023434373</v>
+        <v>31281.64665647562</v>
       </c>
       <c r="E6" t="n">
-        <v>-220714.195459497</v>
+        <v>-221009.1993395782</v>
       </c>
       <c r="F6" t="n">
-        <v>68376.80146482453</v>
+        <v>68081.79758474301</v>
       </c>
       <c r="G6" t="n">
-        <v>-35118.99677173144</v>
+        <v>-35118.99677173161</v>
       </c>
       <c r="H6" t="n">
-        <v>68650.61391673112</v>
+        <v>68650.61391673089</v>
       </c>
       <c r="I6" t="n">
-        <v>68650.61391673089</v>
+        <v>68650.613916731</v>
       </c>
       <c r="J6" t="n">
-        <v>-114956.0539358018</v>
+        <v>-114956.0539358025</v>
       </c>
       <c r="K6" t="n">
-        <v>46532.35392816257</v>
+        <v>46532.35392816238</v>
       </c>
       <c r="L6" t="n">
-        <v>-57237.25676030022</v>
+        <v>-57237.25676029954</v>
       </c>
       <c r="M6" t="n">
-        <v>28972.01658086186</v>
+        <v>28972.01658086182</v>
       </c>
       <c r="N6" t="n">
-        <v>53308.40660091631</v>
+        <v>53308.40660091645</v>
       </c>
       <c r="O6" t="n">
-        <v>3264.545900512974</v>
+        <v>3264.545900513294</v>
       </c>
       <c r="P6" t="n">
-        <v>53308.40660091713</v>
+        <v>53308.40660091693</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="F2" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="G2" t="n">
         <v>334.6376725719921</v>
@@ -26713,19 +26713,19 @@
         <v>192.2668392360827</v>
       </c>
       <c r="L2" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="M2" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="N2" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="O2" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="P2" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.019368432364</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="F4" t="n">
         <v>103.0193684323634</v>
@@ -26811,25 +26811,25 @@
         <v>103.0193684323634</v>
       </c>
       <c r="J4" t="n">
-        <v>528.9589931268375</v>
+        <v>528.9589931268379</v>
       </c>
       <c r="K4" t="n">
-        <v>528.9589931268375</v>
+        <v>528.9589931268379</v>
       </c>
       <c r="L4" t="n">
-        <v>528.9589931268375</v>
+        <v>528.9589931268379</v>
       </c>
       <c r="M4" t="n">
-        <v>425.9396246944749</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="N4" t="n">
-        <v>425.9396246944752</v>
+        <v>425.9396246944744</v>
       </c>
       <c r="O4" t="n">
-        <v>425.9396246944752</v>
+        <v>425.9396246944744</v>
       </c>
       <c r="P4" t="n">
-        <v>425.9396246944752</v>
+        <v>425.9396246944744</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.7120133605782</v>
+        <v>129.7120133605781</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.55482587550446</v>
+        <v>62.5548258755046</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.7120133605783</v>
+        <v>129.7120133605781</v>
       </c>
       <c r="M2" t="n">
-        <v>30.42048752506832</v>
+        <v>30.42048752506861</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.55482587550446</v>
+        <v>62.55482587550452</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.019368432364</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.9396246944741</v>
+        <v>425.9396246944744</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.7120133605782</v>
+        <v>129.7120133605781</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.55482587550446</v>
+        <v>62.5548258755046</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>103.019368432364</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="C11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="D11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="E11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="F11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="G11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="H11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="I11" t="n">
-        <v>192.2668392360827</v>
+        <v>204.925659211414</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>204.925659211414</v>
       </c>
       <c r="K11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="L11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="M11" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.82682556993574</v>
+        <v>89.43153552231404</v>
       </c>
       <c r="R11" t="n">
-        <v>185.9162749112483</v>
+        <v>204.925659211414</v>
       </c>
       <c r="S11" t="n">
-        <v>198.257116872585</v>
+        <v>204.925659211414</v>
       </c>
       <c r="T11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="U11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="12">
@@ -28202,7 +28202,7 @@
         <v>78.10243564664646</v>
       </c>
       <c r="N12" t="n">
-        <v>164.837621878</v>
+        <v>65.61538793357951</v>
       </c>
       <c r="O12" t="n">
         <v>82.46949852711541</v>
@@ -28214,7 +28214,7 @@
         <v>107.7232378871913</v>
       </c>
       <c r="R12" t="n">
-        <v>129.9891576737413</v>
+        <v>183.6897218068403</v>
       </c>
       <c r="S12" t="n">
         <v>166.9891461999742</v>
@@ -28223,19 +28223,19 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U12" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V12" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W12" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X12" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>204.925659211414</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -28269,52 +28269,52 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J13" t="n">
-        <v>78.38027382136319</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K13" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M13" t="n">
-        <v>105.7148695525912</v>
+        <v>204.925659211414</v>
       </c>
       <c r="N13" t="n">
         <v>95.26431138448916</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P13" t="n">
-        <v>204.9256592114139</v>
+        <v>175.1482419859808</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.42117840842621</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R13" t="n">
         <v>167.7671382542942</v>
       </c>
       <c r="S13" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="T13" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="U13" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V13" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W13" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X13" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="C14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="D14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="E14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="F14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="G14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="H14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="I14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>204.925659211414</v>
       </c>
       <c r="K14" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>166.7197387145115</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="O14" t="n">
-        <v>204.9256592114139</v>
+        <v>76.40127229168178</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="R14" t="n">
-        <v>120.1998550382659</v>
+        <v>204.925659211414</v>
       </c>
       <c r="S14" t="n">
-        <v>198.257116872585</v>
+        <v>204.925659211414</v>
       </c>
       <c r="T14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="U14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="15">
@@ -28433,7 +28433,7 @@
         <v>97.03390299193964</v>
       </c>
       <c r="L15" t="n">
-        <v>182.9058456332044</v>
+        <v>83.68361168878391</v>
       </c>
       <c r="M15" t="n">
         <v>78.10243564664646</v>
@@ -28448,7 +28448,7 @@
         <v>85.71739294811697</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.7232378871913</v>
+        <v>204.925659211414</v>
       </c>
       <c r="R15" t="n">
         <v>129.9891576737413</v>
@@ -28460,19 +28460,19 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U15" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V15" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W15" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X15" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="16">
@@ -28488,13 +28488,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>204.925659211414</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>204.925659211414</v>
       </c>
       <c r="G16" t="n">
         <v>167.7791136399961</v>
@@ -28506,10 +28506,10 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J16" t="n">
-        <v>78.38027382136319</v>
+        <v>181.3996422537266</v>
       </c>
       <c r="K16" t="n">
-        <v>202.3904772700172</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L16" t="n">
         <v>103.3860221017998</v>
@@ -28521,37 +28521,37 @@
         <v>95.26431138448916</v>
       </c>
       <c r="O16" t="n">
-        <v>204.9256592114139</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P16" t="n">
         <v>112.1038084270827</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.7641367861777</v>
+        <v>144.3145220767495</v>
       </c>
       <c r="R16" t="n">
-        <v>204.9256592114139</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="T16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="U16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9256592114139</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="17">
@@ -28585,19 +28585,19 @@
         <v>295.2862076684462</v>
       </c>
       <c r="J17" t="n">
-        <v>140.9584812516001</v>
+        <v>232.9300368575664</v>
       </c>
       <c r="K17" t="n">
         <v>263.0285635804589</v>
       </c>
       <c r="L17" t="n">
-        <v>161.2310486348935</v>
+        <v>264.2504170672569</v>
       </c>
       <c r="M17" t="n">
-        <v>250.4306451842656</v>
+        <v>147.4112767519022</v>
       </c>
       <c r="N17" t="n">
-        <v>243.9931025274448</v>
+        <v>145.1361328196214</v>
       </c>
       <c r="O17" t="n">
         <v>150.5178955013912</v>
@@ -28621,7 +28621,7 @@
         <v>251.3078674457589</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="W17" t="n">
         <v>334.6376725719921</v>
@@ -28819,7 +28819,7 @@
         <v>334.6376725719921</v>
       </c>
       <c r="I20" t="n">
-        <v>192.2668392360827</v>
+        <v>295.2862076684462</v>
       </c>
       <c r="J20" t="n">
         <v>140.9584812516001</v>
@@ -28840,7 +28840,7 @@
         <v>150.5178955013912</v>
       </c>
       <c r="P20" t="n">
-        <v>262.1700069808003</v>
+        <v>163.3130372729768</v>
       </c>
       <c r="Q20" t="n">
         <v>171.3006296503229</v>
@@ -28849,16 +28849,16 @@
         <v>185.9162749112483</v>
       </c>
       <c r="S20" t="n">
-        <v>301.2764853049485</v>
+        <v>206.8988673523181</v>
       </c>
       <c r="T20" t="n">
         <v>324.0476447434373</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3078674457589</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="W20" t="n">
         <v>334.6376725719921</v>
@@ -29062,13 +29062,13 @@
         <v>243.9778496839635</v>
       </c>
       <c r="K23" t="n">
-        <v>160.0091951480955</v>
+        <v>263.0285635804589</v>
       </c>
       <c r="L23" t="n">
-        <v>161.2310486348935</v>
+        <v>264.2504170672569</v>
       </c>
       <c r="M23" t="n">
-        <v>147.4112767519022</v>
+        <v>156.0530272316353</v>
       </c>
       <c r="N23" t="n">
         <v>145.1361328196214</v>
@@ -29080,22 +29080,22 @@
         <v>163.3130372729768</v>
       </c>
       <c r="Q23" t="n">
-        <v>270.1575993581463</v>
+        <v>171.3006296503229</v>
       </c>
       <c r="R23" t="n">
         <v>185.9162749112483</v>
       </c>
       <c r="S23" t="n">
-        <v>301.2764853049485</v>
+        <v>198.257116872585</v>
       </c>
       <c r="T23" t="n">
-        <v>324.0476447434373</v>
+        <v>221.0282763110739</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3078674457589</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="W23" t="n">
         <v>334.6376725719921</v>
@@ -29296,25 +29296,25 @@
         <v>192.2668392360827</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="K26" t="n">
-        <v>16.2628031757665</v>
+        <v>82.63192431392187</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>192.2668392360827</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="P26" t="n">
-        <v>192.2668392360827</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>192.2668392360827</v>
@@ -29363,13 +29363,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="G27" t="n">
         <v>137.0908046064029</v>
       </c>
       <c r="H27" t="n">
-        <v>109.7947729641688</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="I27" t="n">
         <v>90.82153100464481</v>
@@ -29378,7 +29378,7 @@
         <v>102.9618319903678</v>
       </c>
       <c r="K27" t="n">
-        <v>192.2668392360827</v>
+        <v>97.03390299193964</v>
       </c>
       <c r="L27" t="n">
         <v>83.68361168878391</v>
@@ -29387,13 +29387,13 @@
         <v>78.10243564664646</v>
       </c>
       <c r="N27" t="n">
-        <v>65.61538793357951</v>
+        <v>106.7661130193959</v>
       </c>
       <c r="O27" t="n">
         <v>82.46949852711541</v>
       </c>
       <c r="P27" t="n">
-        <v>161.3048749044029</v>
+        <v>85.71739294811697</v>
       </c>
       <c r="Q27" t="n">
         <v>107.7232378871913</v>
@@ -29430,22 +29430,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="C28" t="n">
-        <v>192.2668392360827</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>172.8924568678775</v>
       </c>
       <c r="E28" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7791136399961</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="H28" t="n">
         <v>160.343493665108</v>
@@ -29460,22 +29460,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>103.3860221017998</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>37.33731563460579</v>
-      </c>
-      <c r="O28" t="n">
-        <v>108.5102821731398</v>
-      </c>
-      <c r="P28" t="n">
-        <v>192.2668392360827</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>68.42117840842621</v>
       </c>
       <c r="R28" t="n">
         <v>192.2668392360827</v>
@@ -29533,10 +29533,10 @@
         <v>192.2668392360827</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="L29" t="n">
         <v>192.2668392360827</v>
@@ -29545,19 +29545,19 @@
         <v>192.2668392360827</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.107746667770369</v>
       </c>
       <c r="P29" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="R29" t="n">
-        <v>120.1998550382659</v>
       </c>
       <c r="S29" t="n">
         <v>192.2668392360827</v>
@@ -29609,34 +29609,34 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I30" t="n">
-        <v>80.69578385605989</v>
+        <v>90.82153100464481</v>
       </c>
       <c r="J30" t="n">
-        <v>102.9618319903678</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>97.03390299193964</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.68361168878394</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>174.158124571667</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.46949852711543</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71739294811698</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>192.2668392360827</v>
+        <v>129.9891576737413</v>
       </c>
       <c r="S30" t="n">
         <v>166.9891461999742</v>
@@ -29667,28 +29667,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>192.2668392360827</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>177.013809381474</v>
       </c>
       <c r="D31" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7791136399961</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="H31" t="n">
-        <v>160.343493665108</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="I31" t="n">
-        <v>149.0790949574905</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J31" t="n">
         <v>192.2668392360827</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29706,16 +29706,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>192.2668392360827</v>
       </c>
-      <c r="P31" t="n">
-        <v>112.1038084270827</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>68.42117840842621</v>
-      </c>
       <c r="R31" t="n">
-        <v>167.7671382542942</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="S31" t="n">
         <v>192.2668392360827</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="C32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="D32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="E32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="F32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="G32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="H32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="I32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J32" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="M32" t="n">
-        <v>174.0237311838939</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="N32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>121.6840571548397</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>120.1998550382659</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="S32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="33">
@@ -29828,10 +29828,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -29846,13 +29846,13 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I33" t="n">
-        <v>192.2668392360828</v>
+        <v>90.82153100464481</v>
       </c>
       <c r="J33" t="n">
         <v>102.9618319903678</v>
       </c>
       <c r="K33" t="n">
-        <v>166.4090129609305</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="L33" t="n">
         <v>83.68361168878391</v>
@@ -29864,37 +29864,37 @@
         <v>65.61538793357951</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.46949852711541</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.71739294811697</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>84.46748786242044</v>
+        <v>129.9891576737413</v>
       </c>
       <c r="S33" t="n">
         <v>166.9891461999742</v>
       </c>
       <c r="T33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="34">
@@ -29907,73 +29907,73 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="D34" t="n">
-        <v>192.2668392360828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7791136399961</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="H34" t="n">
-        <v>160.343493665108</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="I34" t="n">
-        <v>149.0790949574905</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J34" t="n">
-        <v>192.2668392360828</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>176.9958065193006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.42117840842621</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R34" t="n">
-        <v>167.7671382542942</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="S34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="C35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="D35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="E35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="F35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="G35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="H35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="I35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="J35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="K35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="M35" t="n">
-        <v>163.8174890120721</v>
+        <v>147.4112767519022</v>
       </c>
       <c r="N35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="O35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="P35" t="n">
-        <v>163.3130372729768</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="Q35" t="n">
-        <v>116.6054145461207</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="R35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="S35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="T35" t="n">
-        <v>222.687326761151</v>
+        <v>221.0282763110739</v>
       </c>
       <c r="U35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="V35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="W35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="X35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
     </row>
     <row r="36">
@@ -30086,28 +30086,28 @@
         <v>90.82153100464481</v>
       </c>
       <c r="J36" t="n">
-        <v>102.9618319903678</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>97.03390299193964</v>
       </c>
       <c r="L36" t="n">
-        <v>126.9020039770818</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>78.10243564664646</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>65.61538793357951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71739294811697</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>129.9891576737413</v>
@@ -30119,13 +30119,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U36" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="V36" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="W36" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30144,7 +30144,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>222.687326761151</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30162,28 +30162,28 @@
         <v>160.343493665108</v>
       </c>
       <c r="I37" t="n">
-        <v>149.0790949574905</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="J37" t="n">
-        <v>222.687326761151</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K37" t="n">
-        <v>105.9040573024641</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>184.2003625661018</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>95.26431138448916</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>112.1038084270827</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>133.7641367861777</v>
@@ -30195,19 +30195,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T37" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="U37" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="V37" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="W37" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="X37" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="C38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="D38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="E38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="F38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="G38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="H38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="I38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="J38" t="n">
-        <v>222.687326761151</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="L38" t="n">
-        <v>161.2310486348935</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>207.5020958728371</v>
       </c>
       <c r="N38" t="n">
-        <v>222.687326761151</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="P38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="R38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="S38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="T38" t="n">
-        <v>222.687326761151</v>
+        <v>221.0282763110739</v>
       </c>
       <c r="U38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="V38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="W38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="X38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="Y38" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
     </row>
     <row r="39">
@@ -30311,7 +30311,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>188.2876046816818</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.0908046064029</v>
@@ -30320,25 +30320,25 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I39" t="n">
-        <v>90.82153100464481</v>
+        <v>134.0399232929419</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K39" t="n">
         <v>97.03390299193964</v>
       </c>
       <c r="L39" t="n">
-        <v>79.0368933353747</v>
+        <v>83.68361168878391</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>78.10243564664646</v>
       </c>
       <c r="N39" t="n">
         <v>65.61538793357951</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.46949852711541</v>
       </c>
       <c r="P39" t="n">
         <v>85.71739294811697</v>
@@ -30356,13 +30356,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U39" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="V39" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="W39" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30390,40 +30390,40 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7791136399961</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="H40" t="n">
-        <v>208.6592497986614</v>
+        <v>195.7860625986359</v>
       </c>
       <c r="I40" t="n">
         <v>149.0790949574905</v>
       </c>
       <c r="J40" t="n">
-        <v>78.38027382136319</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L40" t="n">
-        <v>222.687326761151</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>95.26431138448916</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>108.5102821731398</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.42117840842621</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R40" t="n">
         <v>167.7671382542942</v>
@@ -30432,19 +30432,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T40" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="U40" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="V40" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="W40" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="X40" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="C41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="D41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="E41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="F41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="G41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="H41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="I41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="J41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="L41" t="n">
-        <v>222.687326761151</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>222.687326761151</v>
+        <v>20.94962194273885</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="O41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="P41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.3944958099167</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="R41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="S41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="T41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="U41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="V41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="W41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="X41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="Y41" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
     </row>
     <row r="42">
@@ -30581,25 +30581,25 @@
         <v>85.71739294811697</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.9416301754892</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R42" t="n">
-        <v>129.9891576737413</v>
+        <v>149.6663429496285</v>
       </c>
       <c r="S42" t="n">
         <v>166.9891461999742</v>
       </c>
       <c r="T42" t="n">
-        <v>199.1461197487412</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="U42" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="V42" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="W42" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30624,7 +30624,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>222.687326761151</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -30639,28 +30639,28 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J43" t="n">
-        <v>78.38027382136319</v>
+        <v>161.344562964986</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="L43" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>95.26431138448916</v>
       </c>
       <c r="O43" t="n">
-        <v>199.8739788514626</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>112.1038084270827</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.42117840842621</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R43" t="n">
         <v>167.7671382542942</v>
@@ -30669,19 +30669,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T43" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="U43" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="V43" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="W43" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="X43" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="C44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="D44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="E44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="F44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="G44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="H44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="I44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="J44" t="n">
-        <v>140.9584812516001</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="K44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="L44" t="n">
-        <v>222.687326761151</v>
+        <v>66.20435858539555</v>
       </c>
       <c r="M44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="N44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="O44" t="n">
-        <v>62.66392528572288</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="Q44" t="n">
-        <v>171.3006296503229</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="R44" t="n">
-        <v>120.1998550382659</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="S44" t="n">
-        <v>198.257116872585</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="T44" t="n">
-        <v>222.687326761151</v>
+        <v>221.0282763110739</v>
       </c>
       <c r="U44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="V44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="W44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="X44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
     </row>
     <row r="45">
@@ -30809,19 +30809,19 @@
         <v>78.10243564664646</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>65.61538793357951</v>
       </c>
       <c r="O45" t="n">
         <v>82.46949852711541</v>
       </c>
       <c r="P45" t="n">
-        <v>128.9357852364149</v>
+        <v>85.71739294811697</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.7232378871913</v>
+        <v>150.9416301754886</v>
       </c>
       <c r="R45" t="n">
-        <v>84.46748786242044</v>
+        <v>129.9891576737413</v>
       </c>
       <c r="S45" t="n">
         <v>166.9891461999742</v>
@@ -30830,13 +30830,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U45" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="V45" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="W45" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -30870,55 +30870,55 @@
         <v>167.7791136399961</v>
       </c>
       <c r="H46" t="n">
-        <v>222.687326761151</v>
+        <v>160.343493665108</v>
       </c>
       <c r="I46" t="n">
-        <v>222.687326761151</v>
+        <v>149.0790949574905</v>
       </c>
       <c r="J46" t="n">
-        <v>78.38027382136319</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3983137891471</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="L46" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>95.26431138448916</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>112.1038084270827</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>163.0661622979918</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R46" t="n">
         <v>167.7671382542942</v>
       </c>
       <c r="S46" t="n">
-        <v>222.687326761151</v>
+        <v>220.324356379764</v>
       </c>
       <c r="T46" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="U46" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="V46" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="W46" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="X46" t="n">
-        <v>222.687326761151</v>
+        <v>222.6873267611512</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>12.65881997533123</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>63.9671779598139</v>
       </c>
       <c r="K11" t="n">
-        <v>103.019368432364</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="L11" t="n">
-        <v>43.69461057652042</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="M11" t="n">
-        <v>98.39220117187504</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>59.78952639179251</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>103.019368432364</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>41.61262193843714</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>57.95979162761</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.00938430016565</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.668542338828946</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>99.22223394442045</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>99.22223394441986</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>25.09367902947668</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>103.019368432364</v>
+        <v>100.5273454222668</v>
       </c>
       <c r="L13" t="n">
-        <v>37.5036442600274</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>99.21078965882282</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>54.53138419274271</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>92.82185078433113</v>
+        <v>63.04443355889808</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.65881997533112</v>
+        <v>12.65881997533123</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="K14" t="n">
-        <v>44.91646406331836</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>99.4981028709948</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>59.78952639179251</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="O14" t="n">
-        <v>54.40776371002265</v>
+        <v>22.58552015335044</v>
       </c>
       <c r="P14" t="n">
-        <v>103.0193684323634</v>
+        <v>41.61262193843714</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.62502956109098</v>
+        <v>33.6250295610911</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>84.72580417314809</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.668542338828946</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>99.22223394442044</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>99.22223394441986</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>56.3101861932015</v>
+        <v>56.31018619320162</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.4916965648448</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.50461118848273</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="K16" t="n">
-        <v>97.99216348087003</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35817,16 +35817,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.4153770382741</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>10.55038529057186</v>
       </c>
       <c r="R16" t="n">
-        <v>37.15852095711967</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>103.0193684323634</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>91.97155560596632</v>
       </c>
       <c r="K17" t="n">
         <v>103.0193684323634</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="M17" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>98.85696970782347</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.88541410185718</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>98.85696970782347</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36145,16 +36145,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.0193684323634</v>
+        <v>8.641750479733126</v>
       </c>
       <c r="T20" t="n">
         <v>103.0193684323634</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>83.32980512623317</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.88541410185718</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>103.0193684323634</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>8.641750479733098</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36376,22 +36376,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.85696970782347</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>83.32980512623317</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.88541410185718</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>28.1381339204737</v>
+        <v>220.4049731565564</v>
       </c>
       <c r="K26" t="n">
-        <v>10.38230486904185</v>
+        <v>246.7681417369911</v>
       </c>
       <c r="L26" t="n">
-        <v>256.430165915557</v>
+        <v>448.6970051516397</v>
       </c>
       <c r="M26" t="n">
-        <v>302.1022567409303</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>484.4776308284456</v>
+        <v>292.2107915923628</v>
       </c>
       <c r="O26" t="n">
         <v>422.5491249974369</v>
       </c>
       <c r="P26" t="n">
-        <v>350.7525101345885</v>
+        <v>158.4856708985058</v>
       </c>
       <c r="Q26" t="n">
         <v>233.2812002456645</v>
       </c>
       <c r="R26" t="n">
-        <v>6.350564324834426</v>
+        <v>72.06698419781684</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36659,13 +36659,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>47.19762684269884</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>82.47206627191392</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>95.2329362441431</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>41.15072508581639</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>75.58748195628588</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,22 +36726,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>12.43485905414542</v>
       </c>
       <c r="C28" t="n">
-        <v>25.02001813745491</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>24.27698384966516</v>
       </c>
       <c r="E28" t="n">
-        <v>45.83287658951357</v>
+        <v>45.83287658951355</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>46.84579121315147</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.48772559608661</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36753,28 +36753,28 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.345452555505393</v>
       </c>
       <c r="L28" t="n">
-        <v>88.88081713428292</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>72.79479135685449</v>
       </c>
       <c r="N28" t="n">
-        <v>113.8907210945784</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>43.36352621304456</v>
       </c>
       <c r="P28" t="n">
-        <v>80.16303080900002</v>
+        <v>22.90275488695837</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>58.50270244990504</v>
       </c>
       <c r="R28" t="n">
-        <v>24.49970098178856</v>
+        <v>24.49970098178853</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.13813392047368</v>
+        <v>220.4049731565564</v>
       </c>
       <c r="K29" t="n">
-        <v>164.1362174230692</v>
+        <v>356.403056659152</v>
       </c>
       <c r="L29" t="n">
-        <v>319.2340616784982</v>
+        <v>207.5060634335302</v>
       </c>
       <c r="M29" t="n">
         <v>494.369095977013</v>
       </c>
       <c r="N29" t="n">
-        <v>484.4776308284456</v>
+        <v>292.2107915923628</v>
       </c>
       <c r="O29" t="n">
-        <v>232.3900324291245</v>
+        <v>422.5491249974369</v>
       </c>
       <c r="P29" t="n">
-        <v>350.7525101345885</v>
+        <v>28.95380196310589</v>
       </c>
       <c r="Q29" t="n">
-        <v>20.96620958575985</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>72.06698419781685</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>64.27097191246322</v>
       </c>
       <c r="N30" t="n">
-        <v>108.5427366380875</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>106.5494462879658</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>62.27768156234147</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36963,31 +36963,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.43485905414545</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>9.766988282846199</v>
       </c>
       <c r="D31" t="n">
         <v>43.65136621787039</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.83287658951357</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24.48772559608664</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>31.92334557097476</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>43.18774427859225</v>
       </c>
       <c r="J31" t="n">
-        <v>113.8865654147195</v>
+        <v>80.25032409199621</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,22 +36996,22 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>16.1843906870447</v>
       </c>
       <c r="N31" t="n">
-        <v>76.55340545997262</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>131.7609685999104</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>58.50270244990507</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>24.49970098178855</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.4049731565565</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>356.403056659152</v>
+        <v>267.5888917692658</v>
       </c>
       <c r="L32" t="n">
-        <v>256.430165915557</v>
+        <v>448.6970051516397</v>
       </c>
       <c r="M32" t="n">
-        <v>476.1259879248242</v>
+        <v>494.369095977013</v>
       </c>
       <c r="N32" t="n">
-        <v>484.4776308284456</v>
+        <v>484.4776308284455</v>
       </c>
       <c r="O32" t="n">
-        <v>230.2822857613542</v>
+        <v>351.9663429161938</v>
       </c>
       <c r="P32" t="n">
-        <v>49.37358214532343</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>20.9662095857599</v>
+        <v>41.0143610095818</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>6.350564324834398</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37124,10 +37124,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>19.55834024776698</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>44.82177367144396</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>101.445308231438</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>69.37510996899084</v>
+        <v>106.4403042812182</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37203,43 +37203,43 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>25.02001813745488</v>
       </c>
       <c r="D34" t="n">
-        <v>43.65136621787042</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>45.83287658951355</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>24.48772559608661</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>31.92334557097473</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>43.18774427859222</v>
       </c>
       <c r="J34" t="n">
-        <v>80.25032409199625</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2.345452555505393</v>
+        <v>110.5409622353536</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>86.55196968349162</v>
+        <v>72.79479135685449</v>
       </c>
       <c r="N34" t="n">
-        <v>81.73149513481145</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>83.75655706294302</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>24.49970098178853</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.4204875250683</v>
+        <v>30.42048752506859</v>
       </c>
       <c r="J35" t="n">
-        <v>81.72884550955098</v>
+        <v>81.72884550955126</v>
       </c>
       <c r="K35" t="n">
-        <v>386.8235441842203</v>
+        <v>386.8235441842206</v>
       </c>
       <c r="L35" t="n">
-        <v>256.430165915557</v>
+        <v>61.45627812625789</v>
       </c>
       <c r="M35" t="n">
-        <v>16.40621226016986</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>425.9396246944749</v>
+        <v>77.55119394152997</v>
       </c>
       <c r="O35" t="n">
-        <v>425.9396246944749</v>
+        <v>425.9396246944741</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>381.1729976596571</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>180.2545835928303</v>
       </c>
       <c r="R35" t="n">
-        <v>36.77105184990272</v>
+        <v>36.771051849903</v>
       </c>
       <c r="S35" t="n">
-        <v>24.43020988856602</v>
+        <v>24.4302098885663</v>
       </c>
       <c r="T35" t="n">
-        <v>1.659050450077195</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>43.21839228829793</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>43.21839228829705</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>55.44050566252321</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37458,16 +37458,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>73.60823180366083</v>
       </c>
       <c r="J37" t="n">
-        <v>110.6708116170645</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.505743513316983</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>94.00882898924239</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>30.4204875250683</v>
+        <v>30.42048752506859</v>
       </c>
       <c r="J38" t="n">
-        <v>81.72884550955098</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>386.8235441842203</v>
+        <v>386.8235441842206</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>365.2521678402342</v>
       </c>
       <c r="M38" t="n">
-        <v>302.1022567409303</v>
+        <v>60.0908191209349</v>
       </c>
       <c r="N38" t="n">
-        <v>425.9396246944752</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>72.16943125975983</v>
+        <v>72.16943125976012</v>
       </c>
       <c r="P38" t="n">
-        <v>59.37428948817421</v>
+        <v>381.1729976596571</v>
       </c>
       <c r="Q38" t="n">
-        <v>263.7016877707329</v>
+        <v>263.7016877707331</v>
       </c>
       <c r="R38" t="n">
-        <v>38.19938946050818</v>
+        <v>102.4874717228854</v>
       </c>
       <c r="S38" t="n">
-        <v>24.43020988856602</v>
+        <v>24.4302098885663</v>
       </c>
       <c r="T38" t="n">
-        <v>1.659050450077195</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>43.21839228829793</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>43.21839228829705</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37686,13 +37686,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>77.26627873822008</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>54.90821312115522</v>
       </c>
       <c r="H40" t="n">
-        <v>48.31575613355346</v>
+        <v>35.44256893352796</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>119.3013046593512</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.4204875250683</v>
+        <v>30.4204875250685</v>
       </c>
       <c r="J41" t="n">
-        <v>250.8254606816247</v>
+        <v>250.8254606816249</v>
       </c>
       <c r="K41" t="n">
-        <v>164.1362174230692</v>
+        <v>386.8235441842205</v>
       </c>
       <c r="L41" t="n">
-        <v>61.4562781262576</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>75.27605000924885</v>
+        <v>323.0518786836691</v>
       </c>
       <c r="N41" t="n">
-        <v>292.2107915923628</v>
+        <v>77.55119394152989</v>
       </c>
       <c r="O41" t="n">
-        <v>298.3799357336528</v>
+        <v>378.5385332954154</v>
       </c>
       <c r="P41" t="n">
-        <v>381.1729976596569</v>
+        <v>59.37428948817441</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.093866159593816</v>
+        <v>51.38669711082836</v>
       </c>
       <c r="R41" t="n">
-        <v>102.4874717228852</v>
+        <v>102.4874717228854</v>
       </c>
       <c r="S41" t="n">
-        <v>24.43020988856602</v>
+        <v>24.43020988856621</v>
       </c>
       <c r="T41" t="n">
-        <v>1.659050450077195</v>
+        <v>1.659050450077394</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37877,16 +37877,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.21839228829793</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>19.67718527588724</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>23.54120701241007</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>76.25336411458187</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>49.32804782089951</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>118.2890129720041</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>91.36369667832281</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.4204875250683</v>
+        <v>30.4204875250685</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>81.72884550955118</v>
       </c>
       <c r="K44" t="n">
-        <v>386.8235441842203</v>
+        <v>386.8235441842205</v>
       </c>
       <c r="L44" t="n">
-        <v>61.4562781262576</v>
+        <v>322.6345245009525</v>
       </c>
       <c r="M44" t="n">
-        <v>425.9396246944752</v>
+        <v>75.27605000924905</v>
       </c>
       <c r="N44" t="n">
-        <v>425.9396246944752</v>
+        <v>77.55119394152989</v>
       </c>
       <c r="O44" t="n">
-        <v>292.946211047077</v>
+        <v>230.2822857613542</v>
       </c>
       <c r="P44" t="n">
-        <v>61.36399625041264</v>
+        <v>369.243926690837</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>51.38669711082836</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>36.77105184990292</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.43020988856621</v>
       </c>
       <c r="T44" t="n">
-        <v>1.659050450077195</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38111,10 +38111,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>43.21839228829793</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>43.21839228829731</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38166,16 +38166,16 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>62.34383309604306</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>73.60823180366054</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>167.6170607929036</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38193,13 +38193,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.30202551181407</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.362970381387023</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
